--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_CO</t>
+  </si>
+  <si>
+    <t>02_taxi_CO</t>
+  </si>
+  <si>
+    <t>03_van_CO</t>
+  </si>
+  <si>
+    <t>04_bus_CO</t>
+  </si>
+  <si>
+    <t>05_LightTruck_CO</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_CO</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_CO</t>
+  </si>
+  <si>
+    <t>Total_CO (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_CO</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_CO</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_CO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_CO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_CO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_CO</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_CO (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1511.344806287023</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.853788969396864</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>3.862093690187403</v>
+      </c>
+      <c r="D2">
         <v>40.07839207133582</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>42.32303293129885</v>
+      </c>
+      <c r="F2">
         <v>24.44665456836789</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>468.0345494136582</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>12.45310786633184</v>
       </c>
-      <c r="H2" t="n">
-        <v>2057.211299176113</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>2102.542636828203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1124.050254478293</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8893635097884002</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>4.023014260611879</v>
+      </c>
+      <c r="D3">
         <v>39.14633644176985</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>29.78287502572882</v>
+      </c>
+      <c r="F3">
         <v>25.48940286749259</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>328.9488106728068</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>9.522964838959645</v>
       </c>
-      <c r="H3" t="n">
-        <v>1528.04713280911</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>1560.963658585663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1215.646909404779</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.960512590571472</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>4.344855401460828</v>
+      </c>
+      <c r="D4">
         <v>32.62194703480823</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>42.32303293129885</v>
+      </c>
+      <c r="F4">
         <v>20.9708269046189</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>324.5333903953197</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>4.395214541058299</v>
       </c>
-      <c r="H4" t="n">
-        <v>1599.128800871156</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>1644.836176613344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1133.010796808058</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.173959832920688</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>5.310378824007678</v>
+      </c>
+      <c r="D5">
         <v>42.87455896003367</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>34.48543424031759</v>
+      </c>
+      <c r="F5">
         <v>17.61086016299488</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>293.6254484529081</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>8.057893325273545</v>
       </c>
-      <c r="H5" t="n">
-        <v>1496.353517542189</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>1534.975370773594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1176.817892642465</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.42298161566144</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>6.436822816979006</v>
+      </c>
+      <c r="D6">
         <v>36.35016955307201</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>44.67431253859323</v>
+      </c>
+      <c r="F6">
         <v>20.39152229399407</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>304.6639991466267</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>8.790429082116598</v>
       </c>
-      <c r="H6" t="n">
-        <v>1548.436994333935</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>1598.125148073846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1156.905576354098</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.138385292529152</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>5.149458253583204</v>
+      </c>
+      <c r="D7">
         <v>44.73867021916556</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>33.70167437121945</v>
+      </c>
+      <c r="F7">
         <v>22.94046258074333</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>311.2871295628576</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>8.057893325273545</v>
       </c>
-      <c r="H7" t="n">
-        <v>1545.068117334668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>1582.780864666941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1218.633756848034</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.24510891370376</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>5.632219964856628</v>
+      </c>
+      <c r="D8">
         <v>30.75783577567633</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>36.05295397851383</v>
+      </c>
+      <c r="F8">
         <v>20.623244138244</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>238.4326949843164</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>10.25550059580269</v>
       </c>
-      <c r="H8" t="n">
-        <v>1519.948141255777</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>1560.388206285444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1662.678410078608</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.7114908078307201</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>3.218411408489503</v>
+      </c>
+      <c r="D9">
         <v>61.51567155135265</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>48.59311188408387</v>
+      </c>
+      <c r="F9">
         <v>22.82460165861836</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>231.8095645680854</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>7.325357568430495</v>
       </c>
-      <c r="H9" t="n">
-        <v>1986.865096232926</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>2037.965128717668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2027.073798155717</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.960512590571472</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>4.344855401460828</v>
+      </c>
+      <c r="D10">
         <v>36.35016955307201</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>49.37687175318197</v>
+      </c>
+      <c r="F10">
         <v>13.67158881074602</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>88.30840554974679</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>16.11578665054709</v>
       </c>
-      <c r="H10" t="n">
-        <v>2182.4802613104</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>2235.241475874472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1952.402612074342</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.853788969396864</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>3.862093690187403</v>
+      </c>
+      <c r="D11">
         <v>30.75783577567633</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>57.99823031326139</v>
+      </c>
+      <c r="F11">
         <v>9.732317458497169</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>55.19275346859177</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>2.930143027372198</v>
       </c>
-      <c r="H11" t="n">
-        <v>2051.869450773876</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>2112.875985807929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>1404.813914144262</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.173959832920688</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>5.310378824007678</v>
+      </c>
+      <c r="D12">
         <v>27.02961325741253</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>54.86319083686887</v>
+      </c>
+      <c r="F12">
         <v>6.140628872623213</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>75.06214471728478</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.465071513686099</v>
       </c>
-      <c r="H12" t="n">
-        <v>1515.685332338189</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>1574.684942166145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1013.536899077858</v>
       </c>
-      <c r="C13" t="n">
-        <v>1.849876100359872</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>8.367869662072707</v>
+      </c>
+      <c r="D13">
         <v>19.57316822088493</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>47.02559214588764</v>
+      </c>
+      <c r="F13">
         <v>4.98201965137355</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>77.26985485602842</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>3.662678784215248</v>
       </c>
-      <c r="H13" t="n">
-        <v>1120.87449669072</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>1174.418082398321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>759.6548664011848</v>
       </c>
-      <c r="C14" t="n">
-        <v>1.06723621174608</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>4.827617112734254</v>
+      </c>
+      <c r="D14">
         <v>10.25261192522545</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>46.24183227678947</v>
+      </c>
+      <c r="F14">
         <v>3.128244897374089</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>39.73878249738606</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>3.662678784215248</v>
       </c>
-      <c r="H14" t="n">
-        <v>817.5044207171317</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>867.5066338949093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>478.8912067352161</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.42298161566144</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>6.436822816979006</v>
+      </c>
+      <c r="D15">
         <v>10.25261192522545</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>25.86407568023818</v>
+      </c>
+      <c r="F15">
         <v>2.780662130999191</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>28.70023180366771</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>1.465071513686099</v>
       </c>
-      <c r="H15" t="n">
-        <v>523.512765724456</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>554.3906826060119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>281.7592754803871</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.8182144290053281</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>3.701173119762928</v>
+      </c>
+      <c r="D16">
         <v>3.728222518263797</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>11.75639803647191</v>
+      </c>
+      <c r="F16">
         <v>2.548940286749259</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>48.56962305236074</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>1.465071513686099</v>
       </c>
-      <c r="H16" t="n">
-        <v>338.8893472804523</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>353.5287040076818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>170.2503042655343</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.604767186656112</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>2.735649697216077</v>
+      </c>
+      <c r="D17">
         <v>0.9320556295659493</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>4.702559214588762</v>
+      </c>
+      <c r="F17">
         <v>3.707549507998921</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>46.36191291361707</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17">
         <v>0.7325357568430496</v>
       </c>
-      <c r="H17" t="n">
-        <v>222.5891252602154</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>229.4225669853641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>127.438824245546</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.924938050179936</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>4.183934831036353</v>
+      </c>
+      <c r="D18">
         <v>1.864111259131899</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>1.567519738196254</v>
+      </c>
+      <c r="F18">
         <v>3.128244897374089</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>33.11565208115505</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>166.471770533387</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>171.2982870524397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>74.67118608137461</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.426894484698432</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>1.931046845093702</v>
+      </c>
+      <c r="D19">
         <v>2.796166888697847</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.783759869098127</v>
+      </c>
+      <c r="F19">
         <v>2.433079364624292</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>48.56962305236074</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>128.8969498717559</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>131.1848621012493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>101.5528130706695</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.320170863523824</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>1.448285133820276</v>
+      </c>
+      <c r="D20">
         <v>2.796166888697847</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>6.270078952785016</v>
+      </c>
+      <c r="F20">
         <v>2.317218442499326</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>26.49252166492405</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>133.4788909303146</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>140.8770841533961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>204.1012419557574</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.498043565481504</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>2.252887985942652</v>
+      </c>
+      <c r="D21">
         <v>2.796166888697847</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>3.918799345490634</v>
+      </c>
+      <c r="F21">
         <v>3.128244897374089</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>55.19275346859177</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>2.197607270529149</v>
       </c>
-      <c r="H21" t="n">
-        <v>267.9140580464317</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>273.5877018123836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>605.3344151663441</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.640341727047648</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>2.896570267640552</v>
+      </c>
+      <c r="D22">
         <v>17.70905696175303</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>17.24271712015879</v>
+      </c>
+      <c r="F22">
         <v>7.183377171747911</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>105.9700866596962</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.7325357568430496</v>
       </c>
-      <c r="H22" t="n">
-        <v>737.5698134434319</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>757.0687591041836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1027.475520479715</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.462469025089968</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>2.091967415518177</v>
+      </c>
+      <c r="D23">
         <v>24.23344636871468</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>46.24183227678947</v>
+      </c>
+      <c r="F23">
         <v>9.848178380622137</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>145.7088691570822</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>8.790429082116598</v>
       </c>
-      <c r="H23" t="n">
-        <v>1216.518912493341</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>1264.390243160558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1613.893235172111</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.462469025089968</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>2.091967415518177</v>
+      </c>
+      <c r="D24">
         <v>24.23344636871468</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>57.99823031326139</v>
+      </c>
+      <c r="F24">
         <v>14.71433710987072</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>165.5782604057752</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>15.38325089370404</v>
       </c>
-      <c r="H24" t="n">
-        <v>1834.264998975266</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>1893.892727678955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1569.090523523286</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.782639888613792</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>3.540252549338453</v>
+      </c>
+      <c r="D25">
         <v>26.09755762784657</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>54.86319083686887</v>
+      </c>
+      <c r="F25">
         <v>12.28125774524643</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>198.6939124869303</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>2.930143027372198</v>
       </c>
-      <c r="H25" t="n">
-        <v>1809.876034299295</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>1867.496837796888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1511.344806287023</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.853788969396864</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>3.862093690187403</v>
+      </c>
+      <c r="D26">
         <v>40.07839207133582</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>42.32303293129885</v>
+      </c>
+      <c r="F26">
         <v>24.44665456836789</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>468.0345494136582</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>12.45310786633184</v>
       </c>
-      <c r="H26" t="n">
-        <v>2057.211299176113</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>2102.542636828203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1233.567994064309</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.960512590571472</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>4.344855401460828</v>
+      </c>
+      <c r="D27">
         <v>26.09755762784657</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>41.53927306220072</v>
+      </c>
+      <c r="F27">
         <v>23.63562811349312</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>404.0109553900916</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>9.522964838959645</v>
       </c>
-      <c r="H27" t="n">
-        <v>1697.795612625271</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>1742.719228498361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1325.164648990796</v>
       </c>
-      <c r="C28" t="n">
-        <v>1.707577938793728</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>7.724187380374806</v>
+      </c>
+      <c r="D28">
         <v>39.14633644176985</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>46.24183227678947</v>
+      </c>
+      <c r="F28">
         <v>17.61086016299488</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>359.8567526152182</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>6.592821811587447</v>
       </c>
-      <c r="H28" t="n">
-        <v>1750.07899796116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>1802.33743967953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1197.725824745249</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.8182144290053281</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>3.701173119762928</v>
+      </c>
+      <c r="D29">
         <v>35.41811392350607</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>50.16063162228013</v>
+      </c>
+      <c r="F29">
         <v>15.52536356474548</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>227.394144290598</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.465071513686099</v>
       </c>
-      <c r="H29" t="n">
-        <v>1478.34673246679</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>1531.390322779828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1257.46277361035</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.8893635097884002</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>4.023014260611879</v>
+      </c>
+      <c r="D30">
         <v>33.55400266437417</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>41.53927306220072</v>
+      </c>
+      <c r="F30">
         <v>23.86734995774306</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>278.1714774817025</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>5.860286054744397</v>
       </c>
-      <c r="H30" t="n">
-        <v>1599.805253278702</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>1644.478177091726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1285.340016414062</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.8893635097884002</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>4.023014260611879</v>
+      </c>
+      <c r="D31">
         <v>35.41811392350607</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>43.89055266949509</v>
+      </c>
+      <c r="F31">
         <v>19.00119122849448</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>258.3020862330094</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>14.65071513686099</v>
       </c>
-      <c r="H31" t="n">
-        <v>1613.601486445722</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>1660.62568986604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1512.34042210144</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.960512590571472</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>4.344855401460828</v>
+      </c>
+      <c r="D32">
         <v>22.36933510958278</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>47.80935201498572</v>
+      </c>
+      <c r="F32">
         <v>22.47701889224346</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>242.8481152618036</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>10.25550059580269</v>
       </c>
-      <c r="H32" t="n">
-        <v>1811.250904551445</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>1862.444599377319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>1662.678410078608</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.7114908078307201</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>3.218411408489503</v>
+      </c>
+      <c r="D33">
         <v>61.51567155135265</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>48.59311188408387</v>
+      </c>
+      <c r="F33">
         <v>22.82460165861836</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>231.8095645680854</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>7.325357568430495</v>
       </c>
-      <c r="H33" t="n">
-        <v>1986.865096232926</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>2037.965128717668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2027.073798155717</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.960512590571472</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>4.344855401460828</v>
+      </c>
+      <c r="D34">
         <v>36.35016955307201</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>49.37687175318197</v>
+      </c>
+      <c r="F34">
         <v>13.67158881074602</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>88.30840554974679</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>16.11578665054709</v>
       </c>
-      <c r="H34" t="n">
-        <v>2182.4802613104</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>2235.241475874472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1952.402612074342</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.853788969396864</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>3.862093690187403</v>
+      </c>
+      <c r="D35">
         <v>30.75783577567633</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>57.99823031326139</v>
+      </c>
+      <c r="F35">
         <v>9.732317458497169</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>55.19275346859177</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>2.930143027372198</v>
       </c>
-      <c r="H35" t="n">
-        <v>2051.869450773876</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>2112.875985807929</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1404.813914144262</v>
       </c>
-      <c r="C36" t="n">
-        <v>1.173959832920688</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>5.310378824007678</v>
+      </c>
+      <c r="D36">
         <v>27.02961325741253</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>54.86319083686887</v>
+      </c>
+      <c r="F36">
         <v>6.140628872623213</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>75.06214471728478</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.465071513686099</v>
       </c>
-      <c r="H36" t="n">
-        <v>1515.685332338189</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>1574.684942166145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1013.536899077858</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.849876100359872</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>8.367869662072707</v>
+      </c>
+      <c r="D37">
         <v>19.57316822088493</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>47.02559214588764</v>
+      </c>
+      <c r="F37">
         <v>4.98201965137355</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>77.26985485602842</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>3.662678784215248</v>
       </c>
-      <c r="H37" t="n">
-        <v>1120.87449669072</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>1174.418082398321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>759.6548664011848</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.06723621174608</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>4.827617112734254</v>
+      </c>
+      <c r="D38">
         <v>10.25261192522545</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>46.24183227678947</v>
+      </c>
+      <c r="F38">
         <v>3.128244897374089</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>39.73878249738606</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>3.662678784215248</v>
       </c>
-      <c r="H38" t="n">
-        <v>817.5044207171317</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>867.5066338949093</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>478.8912067352161</v>
       </c>
-      <c r="C39" t="n">
-        <v>1.42298161566144</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>6.436822816979006</v>
+      </c>
+      <c r="D39">
         <v>10.25261192522545</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>25.86407568023818</v>
+      </c>
+      <c r="F39">
         <v>2.780662130999191</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>28.70023180366771</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>1.465071513686099</v>
       </c>
-      <c r="H39" t="n">
-        <v>523.512765724456</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>554.3906826060119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>281.7592754803871</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.8182144290053281</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>3.701173119762928</v>
+      </c>
+      <c r="D40">
         <v>3.728222518263797</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>11.75639803647191</v>
+      </c>
+      <c r="F40">
         <v>2.548940286749259</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>48.56962305236074</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>1.465071513686099</v>
       </c>
-      <c r="H40" t="n">
-        <v>338.8893472804523</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>353.5287040076818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>170.2503042655343</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.604767186656112</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>2.735649697216077</v>
+      </c>
+      <c r="D41">
         <v>0.9320556295659493</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>4.702559214588762</v>
+      </c>
+      <c r="F41">
         <v>3.707549507998921</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>46.36191291361707</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.7325357568430496</v>
       </c>
-      <c r="H41" t="n">
-        <v>222.5891252602154</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>229.4225669853641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>127.438824245546</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.924938050179936</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>4.183934831036353</v>
+      </c>
+      <c r="D42">
         <v>1.864111259131899</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>1.567519738196254</v>
+      </c>
+      <c r="F42">
         <v>3.128244897374089</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>33.11565208115505</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>166.471770533387</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>171.2982870524397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>74.67118608137461</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.426894484698432</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>1.931046845093702</v>
+      </c>
+      <c r="D43">
         <v>2.796166888697847</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.783759869098127</v>
+      </c>
+      <c r="F43">
         <v>2.433079364624292</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>48.56962305236074</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>128.8969498717559</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>131.1848621012493</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>101.5528130706695</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.320170863523824</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>1.448285133820276</v>
+      </c>
+      <c r="D44">
         <v>2.796166888697847</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>6.270078952785016</v>
+      </c>
+      <c r="F44">
         <v>2.317218442499326</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>26.49252166492405</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>133.4788909303146</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>140.8770841533961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>204.1012419557574</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.498043565481504</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>2.252887985942652</v>
+      </c>
+      <c r="D45">
         <v>2.796166888697847</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>3.918799345490634</v>
+      </c>
+      <c r="F45">
         <v>3.128244897374089</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>55.19275346859177</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>2.197607270529149</v>
       </c>
-      <c r="H45" t="n">
-        <v>267.9140580464317</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>273.5877018123836</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>605.3344151663441</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.640341727047648</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>2.896570267640552</v>
+      </c>
+      <c r="D46">
         <v>17.70905696175303</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>17.24271712015879</v>
+      </c>
+      <c r="F46">
         <v>7.183377171747911</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>105.9700866596962</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.7325357568430496</v>
       </c>
-      <c r="H46" t="n">
-        <v>737.5698134434319</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>757.0687591041836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1027.475520479715</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.462469025089968</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>2.091967415518177</v>
+      </c>
+      <c r="D47">
         <v>24.23344636871468</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>46.24183227678947</v>
+      </c>
+      <c r="F47">
         <v>9.848178380622137</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>145.7088691570822</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>8.790429082116598</v>
       </c>
-      <c r="H47" t="n">
-        <v>1216.518912493341</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>1264.390243160558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1613.893235172111</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.462469025089968</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>2.091967415518177</v>
+      </c>
+      <c r="D48">
         <v>24.23344636871468</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>57.99823031326139</v>
+      </c>
+      <c r="F48">
         <v>14.71433710987072</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>165.5782604057752</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>15.38325089370404</v>
       </c>
-      <c r="H48" t="n">
-        <v>1834.264998975266</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>1893.892727678955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1569.090523523286</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.782639888613792</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>3.540252549338453</v>
+      </c>
+      <c r="D49">
         <v>26.09755762784657</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>54.86319083686887</v>
+      </c>
+      <c r="F49">
         <v>12.28125774524643</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>198.6939124869303</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>2.930143027372198</v>
       </c>
-      <c r="H49" t="n">
-        <v>1809.876034299295</v>
+      <c r="I49">
+        <v>1867.496837796888</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1511.344806287023</v>
+        <v>2562.715106312779</v>
       </c>
       <c r="C2">
-        <v>3.862093690187403</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D2">
-        <v>40.07839207133582</v>
+        <v>67.95901264269989</v>
       </c>
       <c r="E2">
-        <v>42.32303293129885</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F2">
-        <v>24.44665456836789</v>
+        <v>41.45302296375424</v>
       </c>
       <c r="G2">
-        <v>468.0345494136582</v>
+        <v>793.6238011796811</v>
       </c>
       <c r="H2">
-        <v>12.45310786633184</v>
+        <v>21.11613942551922</v>
       </c>
       <c r="I2">
-        <v>2102.542636828203</v>
+        <v>3565.180992882606</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1124.050254478293</v>
+        <v>1905.998257593627</v>
       </c>
       <c r="C3">
-        <v>4.023014260611879</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D3">
-        <v>39.14633644176985</v>
+        <v>66.37857048821849</v>
       </c>
       <c r="E3">
-        <v>29.78287502572882</v>
+        <v>50.50139678275755</v>
       </c>
       <c r="F3">
-        <v>25.48940286749259</v>
+        <v>43.22116138400916</v>
       </c>
       <c r="G3">
-        <v>328.9488106728068</v>
+        <v>557.7827659234553</v>
       </c>
       <c r="H3">
-        <v>9.522964838959645</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I3">
-        <v>1560.963658585663</v>
+        <v>2646.851421080037</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1215.646909404779</v>
+        <v>2061.314324642886</v>
       </c>
       <c r="C4">
-        <v>4.344855401460828</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D4">
-        <v>32.62194703480823</v>
+        <v>55.31547540684873</v>
       </c>
       <c r="E4">
-        <v>42.32303293129885</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F4">
-        <v>20.9708269046189</v>
+        <v>35.55922822957118</v>
       </c>
       <c r="G4">
-        <v>324.5333903953197</v>
+        <v>550.2957489311938</v>
       </c>
       <c r="H4">
-        <v>4.395214541058299</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I4">
-        <v>1644.836176613344</v>
+        <v>2789.070038605235</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1133.010796808058</v>
+        <v>1921.192220674533</v>
       </c>
       <c r="C5">
-        <v>5.310378824007678</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D5">
-        <v>42.87455896003367</v>
+        <v>72.70033910614403</v>
       </c>
       <c r="E5">
-        <v>34.48543424031759</v>
+        <v>58.47530153792981</v>
       </c>
       <c r="F5">
-        <v>17.61086016299488</v>
+        <v>29.86189331986089</v>
       </c>
       <c r="G5">
-        <v>293.6254484529081</v>
+        <v>497.8866299853661</v>
       </c>
       <c r="H5">
-        <v>8.057893325273545</v>
+        <v>13.66338433415949</v>
       </c>
       <c r="I5">
-        <v>1534.975370773594</v>
+        <v>2602.784324355224</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1176.817892642465</v>
+        <v>1995.473817958961</v>
       </c>
       <c r="C6">
-        <v>6.436822816979006</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D6">
-        <v>36.35016955307201</v>
+        <v>61.63724402477429</v>
       </c>
       <c r="E6">
-        <v>44.67431253859323</v>
+        <v>75.75209517413634</v>
       </c>
       <c r="F6">
-        <v>20.39152229399407</v>
+        <v>34.57692910720733</v>
       </c>
       <c r="G6">
-        <v>304.6639991466267</v>
+        <v>516.6041724660188</v>
       </c>
       <c r="H6">
-        <v>8.790429082116598</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I6">
-        <v>1598.125148073846</v>
+        <v>2709.864381516521</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1156.905576354098</v>
+        <v>1961.709455556949</v>
       </c>
       <c r="C7">
-        <v>5.149458253583204</v>
+        <v>8.731690082162826</v>
       </c>
       <c r="D7">
-        <v>44.73867021916556</v>
+        <v>75.86122341510681</v>
       </c>
       <c r="E7">
-        <v>33.70167437121945</v>
+        <v>57.14631741206778</v>
       </c>
       <c r="F7">
-        <v>22.94046258074333</v>
+        <v>38.89904524560827</v>
       </c>
       <c r="G7">
-        <v>311.2871295628576</v>
+        <v>527.8346979544107</v>
       </c>
       <c r="H7">
-        <v>8.057893325273545</v>
+        <v>13.66338433415949</v>
       </c>
       <c r="I7">
-        <v>1582.780864666941</v>
+        <v>2683.845814000465</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1218.633756848034</v>
+        <v>2066.378979003189</v>
       </c>
       <c r="C8">
-        <v>5.632219964856628</v>
+        <v>9.550286027365589</v>
       </c>
       <c r="D8">
-        <v>30.75783577567633</v>
+        <v>52.15459109788594</v>
       </c>
       <c r="E8">
-        <v>36.05295397851383</v>
+        <v>61.1332697896539</v>
       </c>
       <c r="F8">
-        <v>20.623244138244</v>
+        <v>34.96984875615286</v>
       </c>
       <c r="G8">
-        <v>238.4326949843164</v>
+        <v>404.2989175821018</v>
       </c>
       <c r="H8">
-        <v>10.25550059580269</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I8">
-        <v>1560.388206285444</v>
+        <v>2645.875654136187</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1662.678410078608</v>
+        <v>2819.324260568077</v>
       </c>
       <c r="C9">
-        <v>3.218411408489503</v>
+        <v>5.457306301351766</v>
       </c>
       <c r="D9">
-        <v>61.51567155135265</v>
+        <v>104.3091821957719</v>
       </c>
       <c r="E9">
-        <v>48.59311188408387</v>
+        <v>82.39701580344658</v>
       </c>
       <c r="F9">
-        <v>22.82460165861836</v>
+        <v>38.70258542113547</v>
       </c>
       <c r="G9">
-        <v>231.8095645680854</v>
+        <v>393.06839209371</v>
       </c>
       <c r="H9">
-        <v>7.325357568430495</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I9">
-        <v>2037.965128717668</v>
+        <v>3455.680000869092</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2027.073798155717</v>
+        <v>3437.212092524912</v>
       </c>
       <c r="C10">
-        <v>4.344855401460828</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D10">
-        <v>36.35016955307201</v>
+        <v>61.63724402477429</v>
       </c>
       <c r="E10">
-        <v>49.37687175318197</v>
+        <v>83.72599992930857</v>
       </c>
       <c r="F10">
-        <v>13.67158881074602</v>
+        <v>23.18225928778674</v>
       </c>
       <c r="G10">
-        <v>88.30840554974679</v>
+        <v>149.7403398452228</v>
       </c>
       <c r="H10">
-        <v>16.11578665054709</v>
+        <v>27.32676866831898</v>
       </c>
       <c r="I10">
-        <v>2235.241475874472</v>
+        <v>3790.192067787148</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1952.402612074342</v>
+        <v>3310.595733517364</v>
       </c>
       <c r="C11">
-        <v>3.862093690187403</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D11">
-        <v>30.75783577567633</v>
+        <v>52.15459109788594</v>
       </c>
       <c r="E11">
-        <v>57.99823031326139</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F11">
-        <v>9.732317458497169</v>
+        <v>16.50262525571259</v>
       </c>
       <c r="G11">
-        <v>55.19275346859177</v>
+        <v>93.58771240326425</v>
       </c>
       <c r="H11">
-        <v>2.930143027372198</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I11">
-        <v>2112.875985807929</v>
+        <v>3582.70275854388</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1404.813914144262</v>
+        <v>2382.075767462009</v>
       </c>
       <c r="C12">
-        <v>5.310378824007678</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D12">
-        <v>27.02961325741253</v>
+        <v>45.83282247996039</v>
       </c>
       <c r="E12">
-        <v>54.86319083686887</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F12">
-        <v>6.140628872623213</v>
+        <v>10.41237069705675</v>
       </c>
       <c r="G12">
-        <v>75.06214471728478</v>
+        <v>127.2792888684395</v>
       </c>
       <c r="H12">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I12">
-        <v>1574.684942166145</v>
+        <v>2670.117945412159</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1013.536899077858</v>
+        <v>1718.606046262456</v>
       </c>
       <c r="C13">
-        <v>8.367869662072707</v>
+        <v>14.18899638351459</v>
       </c>
       <c r="D13">
-        <v>19.57316822088493</v>
+        <v>33.18928524410924</v>
       </c>
       <c r="E13">
-        <v>47.02559214588764</v>
+        <v>79.73904755172245</v>
       </c>
       <c r="F13">
-        <v>4.98201965137355</v>
+        <v>8.447772452329064</v>
       </c>
       <c r="G13">
-        <v>77.26985485602842</v>
+        <v>131.02279736457</v>
       </c>
       <c r="H13">
-        <v>3.662678784215248</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I13">
-        <v>1174.418082398321</v>
+        <v>1991.404574501501</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>759.6548664011848</v>
+        <v>1288.110425636791</v>
       </c>
       <c r="C14">
-        <v>4.827617112734254</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D14">
-        <v>10.25261192522545</v>
+        <v>17.38486369929531</v>
       </c>
       <c r="E14">
-        <v>46.24183227678947</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F14">
-        <v>3.128244897374089</v>
+        <v>5.304415260764762</v>
       </c>
       <c r="G14">
-        <v>39.73878249738606</v>
+        <v>67.38315293035029</v>
       </c>
       <c r="H14">
-        <v>3.662678784215248</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I14">
-        <v>867.5066338949093</v>
+        <v>1470.989509647889</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>478.8912067352161</v>
+        <v>812.0329157684098</v>
       </c>
       <c r="C15">
-        <v>6.436822816979006</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D15">
-        <v>10.25261192522545</v>
+        <v>17.38486369929531</v>
       </c>
       <c r="E15">
-        <v>25.86407568023818</v>
+        <v>43.85647615344735</v>
       </c>
       <c r="F15">
-        <v>2.780662130999191</v>
+        <v>4.715035787346452</v>
       </c>
       <c r="G15">
-        <v>28.70023180366771</v>
+        <v>48.66561044969741</v>
       </c>
       <c r="H15">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I15">
-        <v>554.3906826060119</v>
+        <v>940.0537661580198</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>281.7592754803871</v>
+        <v>477.7657279884824</v>
       </c>
       <c r="C16">
-        <v>3.701173119762928</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D16">
-        <v>3.728222518263797</v>
+        <v>6.321768617925569</v>
       </c>
       <c r="E16">
-        <v>11.75639803647191</v>
+        <v>19.93476188793061</v>
       </c>
       <c r="F16">
-        <v>2.548940286749259</v>
+        <v>4.322116138400917</v>
       </c>
       <c r="G16">
-        <v>48.56962305236074</v>
+        <v>82.35718691487254</v>
       </c>
       <c r="H16">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I16">
-        <v>353.5287040076818</v>
+        <v>599.4617154912864</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>170.2503042655343</v>
+        <v>288.68529853721</v>
       </c>
       <c r="C17">
-        <v>2.735649697216077</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D17">
-        <v>0.9320556295659493</v>
+        <v>1.580442154481392</v>
       </c>
       <c r="E17">
-        <v>4.702559214588762</v>
+        <v>7.973904755172247</v>
       </c>
       <c r="F17">
-        <v>3.707549507998921</v>
+        <v>6.286714383128607</v>
       </c>
       <c r="G17">
-        <v>46.36191291361707</v>
+        <v>78.61367841874201</v>
       </c>
       <c r="H17">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I17">
-        <v>229.4225669853641</v>
+        <v>389.0208744534432</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>127.438824245546</v>
+        <v>216.0919193728824</v>
       </c>
       <c r="C18">
-        <v>4.183934831036353</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D18">
-        <v>1.864111259131899</v>
+        <v>3.160884308962784</v>
       </c>
       <c r="E18">
-        <v>1.567519738196254</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F18">
-        <v>3.128244897374089</v>
+        <v>5.304415260764762</v>
       </c>
       <c r="G18">
-        <v>33.11565208115505</v>
+        <v>56.15262744195856</v>
       </c>
       <c r="I18">
-        <v>171.2982870524397</v>
+        <v>290.4623128280498</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>74.67118608137461</v>
+        <v>126.6163590075483</v>
       </c>
       <c r="C19">
-        <v>1.931046845093702</v>
+        <v>3.274383780811059</v>
       </c>
       <c r="D19">
-        <v>2.796166888697847</v>
+        <v>4.741326463444175</v>
       </c>
       <c r="E19">
-        <v>0.783759869098127</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F19">
-        <v>2.433079364624292</v>
+        <v>4.125656313928148</v>
       </c>
       <c r="G19">
-        <v>48.56962305236074</v>
+        <v>82.35718691487254</v>
       </c>
       <c r="I19">
-        <v>131.1848621012493</v>
+        <v>222.4438966064662</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>101.5528130706695</v>
+        <v>172.1982482502658</v>
       </c>
       <c r="C20">
-        <v>1.448285133820276</v>
+        <v>2.455787835608295</v>
       </c>
       <c r="D20">
-        <v>2.796166888697847</v>
+        <v>4.741326463444175</v>
       </c>
       <c r="E20">
-        <v>6.270078952785016</v>
+        <v>10.63187300689633</v>
       </c>
       <c r="F20">
-        <v>2.317218442499326</v>
+        <v>3.929196489455379</v>
       </c>
       <c r="G20">
-        <v>26.49252166492405</v>
+        <v>44.92210195356685</v>
       </c>
       <c r="I20">
-        <v>140.8770841533961</v>
+        <v>238.8785339992368</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>204.1012419557574</v>
+        <v>346.0847146206323</v>
       </c>
       <c r="C21">
-        <v>2.252887985942652</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D21">
-        <v>2.796166888697847</v>
+        <v>4.741326463444175</v>
       </c>
       <c r="E21">
-        <v>3.918799345490634</v>
+        <v>6.644920629310206</v>
       </c>
       <c r="F21">
-        <v>3.128244897374089</v>
+        <v>5.304415260764762</v>
       </c>
       <c r="G21">
-        <v>55.19275346859177</v>
+        <v>93.58771240326425</v>
       </c>
       <c r="H21">
-        <v>2.197607270529149</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I21">
-        <v>273.5877018123836</v>
+        <v>463.9095813340417</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>605.3344151663441</v>
+        <v>1026.436617021192</v>
       </c>
       <c r="C22">
-        <v>2.896570267640552</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D22">
-        <v>17.70905696175303</v>
+        <v>30.02840093514645</v>
       </c>
       <c r="E22">
-        <v>17.24271712015879</v>
+        <v>29.2376507689649</v>
       </c>
       <c r="F22">
-        <v>7.183377171747911</v>
+        <v>12.18050911731168</v>
       </c>
       <c r="G22">
-        <v>105.9700866596962</v>
+        <v>179.6884078142674</v>
       </c>
       <c r="H22">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I22">
-        <v>757.0687591041836</v>
+        <v>1283.725287176658</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1027.475520479715</v>
+        <v>1742.241099943865</v>
       </c>
       <c r="C23">
-        <v>2.091967415518177</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D23">
-        <v>24.23344636871468</v>
+        <v>41.0914960165162</v>
       </c>
       <c r="E23">
-        <v>46.24183227678947</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F23">
-        <v>9.848178380622137</v>
+        <v>16.69908508018536</v>
       </c>
       <c r="G23">
-        <v>145.7088691570822</v>
+        <v>247.0715607446177</v>
       </c>
       <c r="H23">
-        <v>8.790429082116598</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I23">
-        <v>1264.390243160558</v>
+        <v>2143.966064489643</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1613.893235172111</v>
+        <v>2736.601572683145</v>
       </c>
       <c r="C24">
-        <v>2.091967415518177</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D24">
-        <v>24.23344636871468</v>
+        <v>41.0914960165162</v>
       </c>
       <c r="E24">
-        <v>57.99823031326139</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F24">
-        <v>14.71433710987072</v>
+        <v>24.95039770804166</v>
       </c>
       <c r="G24">
-        <v>165.5782604057752</v>
+        <v>280.7631372097928</v>
       </c>
       <c r="H24">
-        <v>15.38325089370404</v>
+        <v>26.08464281975904</v>
       </c>
       <c r="I24">
-        <v>1893.892727678955</v>
+        <v>3211.383320846924</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1569.090523523286</v>
+        <v>2660.631757278616</v>
       </c>
       <c r="C25">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D25">
-        <v>26.09755762784657</v>
+        <v>44.252380325479</v>
       </c>
       <c r="E25">
-        <v>54.86319083686887</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F25">
-        <v>12.28125774524643</v>
+        <v>20.82474139411351</v>
       </c>
       <c r="G25">
-        <v>198.6939124869303</v>
+        <v>336.9157646517514</v>
       </c>
       <c r="H25">
-        <v>2.930143027372198</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I25">
-        <v>1867.496837796888</v>
+        <v>3166.625072786029</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1511.344806287023</v>
+        <v>2562.715106312779</v>
       </c>
       <c r="C26">
-        <v>3.862093690187403</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D26">
-        <v>40.07839207133582</v>
+        <v>67.95901264269989</v>
       </c>
       <c r="E26">
-        <v>42.32303293129885</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F26">
-        <v>24.44665456836789</v>
+        <v>41.45302296375424</v>
       </c>
       <c r="G26">
-        <v>468.0345494136582</v>
+        <v>793.6238011796811</v>
       </c>
       <c r="H26">
-        <v>12.45310786633184</v>
+        <v>21.11613942551922</v>
       </c>
       <c r="I26">
-        <v>2102.542636828203</v>
+        <v>3565.180992882606</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1233.567994064309</v>
+        <v>2091.702250804698</v>
       </c>
       <c r="C27">
-        <v>4.344855401460828</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D27">
-        <v>26.09755762784657</v>
+        <v>44.252380325479</v>
       </c>
       <c r="E27">
-        <v>41.53927306220072</v>
+        <v>70.43615867068817</v>
       </c>
       <c r="F27">
-        <v>23.63562811349312</v>
+        <v>40.07780419244486</v>
       </c>
       <c r="G27">
-        <v>404.0109553900916</v>
+        <v>685.0620547918945</v>
       </c>
       <c r="H27">
-        <v>9.522964838959645</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I27">
-        <v>1742.719228498361</v>
+        <v>2955.04564832331</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1325.164648990796</v>
+        <v>2247.018317853958</v>
       </c>
       <c r="C28">
-        <v>7.724187380374806</v>
+        <v>13.09753512324424</v>
       </c>
       <c r="D28">
-        <v>39.14633644176985</v>
+        <v>66.37857048821849</v>
       </c>
       <c r="E28">
-        <v>46.24183227678947</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F28">
-        <v>17.61086016299488</v>
+        <v>29.86189331986089</v>
       </c>
       <c r="G28">
-        <v>359.8567526152182</v>
+        <v>610.1918848692832</v>
       </c>
       <c r="H28">
-        <v>6.592821811587447</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I28">
-        <v>1802.33743967953</v>
+        <v>3056.137397717464</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1197.725824745249</v>
+        <v>2030.926398481075</v>
       </c>
       <c r="C29">
-        <v>3.701173119762928</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D29">
-        <v>35.41811392350607</v>
+        <v>60.05680187029291</v>
       </c>
       <c r="E29">
-        <v>50.16063162228013</v>
+        <v>85.05498405517061</v>
       </c>
       <c r="F29">
-        <v>15.52536356474548</v>
+        <v>26.32561647935103</v>
       </c>
       <c r="G29">
-        <v>227.394144290598</v>
+        <v>385.5813751014487</v>
       </c>
       <c r="H29">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I29">
-        <v>1531.390322779828</v>
+        <v>2596.705329931012</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1257.46277361035</v>
+        <v>2132.219485687114</v>
       </c>
       <c r="C30">
-        <v>4.023014260611879</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D30">
-        <v>33.55400266437417</v>
+        <v>56.89591756133013</v>
       </c>
       <c r="E30">
-        <v>41.53927306220072</v>
+        <v>70.43615867068817</v>
       </c>
       <c r="F30">
-        <v>23.86734995774306</v>
+        <v>40.47072384139041</v>
       </c>
       <c r="G30">
-        <v>278.1714774817025</v>
+        <v>471.6820705124519</v>
       </c>
       <c r="H30">
-        <v>5.860286054744397</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I30">
-        <v>1644.478177091726</v>
+        <v>2788.462995938144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1285.340016414062</v>
+        <v>2179.489593049931</v>
       </c>
       <c r="C31">
-        <v>4.023014260611879</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D31">
-        <v>35.41811392350607</v>
+        <v>60.05680187029291</v>
       </c>
       <c r="E31">
-        <v>43.89055266949509</v>
+        <v>74.42311104827431</v>
       </c>
       <c r="F31">
-        <v>19.00119122849448</v>
+        <v>32.21941121353411</v>
       </c>
       <c r="G31">
-        <v>258.3020862330094</v>
+        <v>437.9904940472769</v>
       </c>
       <c r="H31">
-        <v>14.65071513686099</v>
+        <v>24.84251697119907</v>
       </c>
       <c r="I31">
-        <v>1660.62568986604</v>
+        <v>2815.843561077199</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1512.34042210144</v>
+        <v>2564.403324432877</v>
       </c>
       <c r="C32">
-        <v>4.344855401460828</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D32">
-        <v>22.36933510958278</v>
+        <v>37.9306117075534</v>
       </c>
       <c r="E32">
-        <v>47.80935201498572</v>
+        <v>81.06803167758451</v>
       </c>
       <c r="F32">
-        <v>22.47701889224346</v>
+        <v>38.11320594771718</v>
       </c>
       <c r="G32">
-        <v>242.8481152618036</v>
+        <v>411.7859345743627</v>
       </c>
       <c r="H32">
-        <v>10.25550059580269</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I32">
-        <v>1862.444599377319</v>
+        <v>3158.058233726759</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1662.678410078608</v>
+        <v>2819.324260568077</v>
       </c>
       <c r="C33">
-        <v>3.218411408489503</v>
+        <v>5.457306301351766</v>
       </c>
       <c r="D33">
-        <v>61.51567155135265</v>
+        <v>104.3091821957719</v>
       </c>
       <c r="E33">
-        <v>48.59311188408387</v>
+        <v>82.39701580344658</v>
       </c>
       <c r="F33">
-        <v>22.82460165861836</v>
+        <v>38.70258542113547</v>
       </c>
       <c r="G33">
-        <v>231.8095645680854</v>
+        <v>393.06839209371</v>
       </c>
       <c r="H33">
-        <v>7.325357568430495</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I33">
-        <v>2037.965128717668</v>
+        <v>3455.680000869092</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2027.073798155717</v>
+        <v>3437.212092524912</v>
       </c>
       <c r="C34">
-        <v>4.344855401460828</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D34">
-        <v>36.35016955307201</v>
+        <v>61.63724402477429</v>
       </c>
       <c r="E34">
-        <v>49.37687175318197</v>
+        <v>83.72599992930857</v>
       </c>
       <c r="F34">
-        <v>13.67158881074602</v>
+        <v>23.18225928778674</v>
       </c>
       <c r="G34">
-        <v>88.30840554974679</v>
+        <v>149.7403398452228</v>
       </c>
       <c r="H34">
-        <v>16.11578665054709</v>
+        <v>27.32676866831898</v>
       </c>
       <c r="I34">
-        <v>2235.241475874472</v>
+        <v>3790.192067787148</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1952.402612074342</v>
+        <v>3310.595733517364</v>
       </c>
       <c r="C35">
-        <v>3.862093690187403</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D35">
-        <v>30.75783577567633</v>
+        <v>52.15459109788594</v>
       </c>
       <c r="E35">
-        <v>57.99823031326139</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F35">
-        <v>9.732317458497169</v>
+        <v>16.50262525571259</v>
       </c>
       <c r="G35">
-        <v>55.19275346859177</v>
+        <v>93.58771240326425</v>
       </c>
       <c r="H35">
-        <v>2.930143027372198</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I35">
-        <v>2112.875985807929</v>
+        <v>3582.70275854388</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1404.813914144262</v>
+        <v>2382.075767462009</v>
       </c>
       <c r="C36">
-        <v>5.310378824007678</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D36">
-        <v>27.02961325741253</v>
+        <v>45.83282247996039</v>
       </c>
       <c r="E36">
-        <v>54.86319083686887</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F36">
-        <v>6.140628872623213</v>
+        <v>10.41237069705675</v>
       </c>
       <c r="G36">
-        <v>75.06214471728478</v>
+        <v>127.2792888684395</v>
       </c>
       <c r="H36">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I36">
-        <v>1574.684942166145</v>
+        <v>2670.117945412159</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1013.536899077858</v>
+        <v>1718.606046262456</v>
       </c>
       <c r="C37">
-        <v>8.367869662072707</v>
+        <v>14.18899638351459</v>
       </c>
       <c r="D37">
-        <v>19.57316822088493</v>
+        <v>33.18928524410924</v>
       </c>
       <c r="E37">
-        <v>47.02559214588764</v>
+        <v>79.73904755172245</v>
       </c>
       <c r="F37">
-        <v>4.98201965137355</v>
+        <v>8.447772452329064</v>
       </c>
       <c r="G37">
-        <v>77.26985485602842</v>
+        <v>131.02279736457</v>
       </c>
       <c r="H37">
-        <v>3.662678784215248</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I37">
-        <v>1174.418082398321</v>
+        <v>1991.404574501501</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>759.6548664011848</v>
+        <v>1288.110425636791</v>
       </c>
       <c r="C38">
-        <v>4.827617112734254</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D38">
-        <v>10.25261192522545</v>
+        <v>17.38486369929531</v>
       </c>
       <c r="E38">
-        <v>46.24183227678947</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F38">
-        <v>3.128244897374089</v>
+        <v>5.304415260764762</v>
       </c>
       <c r="G38">
-        <v>39.73878249738606</v>
+        <v>67.38315293035029</v>
       </c>
       <c r="H38">
-        <v>3.662678784215248</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I38">
-        <v>867.5066338949093</v>
+        <v>1470.989509647889</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>478.8912067352161</v>
+        <v>812.0329157684098</v>
       </c>
       <c r="C39">
-        <v>6.436822816979006</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D39">
-        <v>10.25261192522545</v>
+        <v>17.38486369929531</v>
       </c>
       <c r="E39">
-        <v>25.86407568023818</v>
+        <v>43.85647615344735</v>
       </c>
       <c r="F39">
-        <v>2.780662130999191</v>
+        <v>4.715035787346452</v>
       </c>
       <c r="G39">
-        <v>28.70023180366771</v>
+        <v>48.66561044969741</v>
       </c>
       <c r="H39">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I39">
-        <v>554.3906826060119</v>
+        <v>940.0537661580198</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>281.7592754803871</v>
+        <v>477.7657279884824</v>
       </c>
       <c r="C40">
-        <v>3.701173119762928</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D40">
-        <v>3.728222518263797</v>
+        <v>6.321768617925569</v>
       </c>
       <c r="E40">
-        <v>11.75639803647191</v>
+        <v>19.93476188793061</v>
       </c>
       <c r="F40">
-        <v>2.548940286749259</v>
+        <v>4.322116138400917</v>
       </c>
       <c r="G40">
-        <v>48.56962305236074</v>
+        <v>82.35718691487254</v>
       </c>
       <c r="H40">
-        <v>1.465071513686099</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I40">
-        <v>353.5287040076818</v>
+        <v>599.4617154912864</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>170.2503042655343</v>
+        <v>288.68529853721</v>
       </c>
       <c r="C41">
-        <v>2.735649697216077</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D41">
-        <v>0.9320556295659493</v>
+        <v>1.580442154481392</v>
       </c>
       <c r="E41">
-        <v>4.702559214588762</v>
+        <v>7.973904755172247</v>
       </c>
       <c r="F41">
-        <v>3.707549507998921</v>
+        <v>6.286714383128607</v>
       </c>
       <c r="G41">
-        <v>46.36191291361707</v>
+        <v>78.61367841874201</v>
       </c>
       <c r="H41">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I41">
-        <v>229.4225669853641</v>
+        <v>389.0208744534432</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>127.438824245546</v>
+        <v>216.0919193728824</v>
       </c>
       <c r="C42">
-        <v>4.183934831036353</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D42">
-        <v>1.864111259131899</v>
+        <v>3.160884308962784</v>
       </c>
       <c r="E42">
-        <v>1.567519738196254</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F42">
-        <v>3.128244897374089</v>
+        <v>5.304415260764762</v>
       </c>
       <c r="G42">
-        <v>33.11565208115505</v>
+        <v>56.15262744195856</v>
       </c>
       <c r="I42">
-        <v>171.2982870524397</v>
+        <v>290.4623128280498</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>74.67118608137461</v>
+        <v>126.6163590075483</v>
       </c>
       <c r="C43">
-        <v>1.931046845093702</v>
+        <v>3.274383780811059</v>
       </c>
       <c r="D43">
-        <v>2.796166888697847</v>
+        <v>4.741326463444175</v>
       </c>
       <c r="E43">
-        <v>0.783759869098127</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F43">
-        <v>2.433079364624292</v>
+        <v>4.125656313928148</v>
       </c>
       <c r="G43">
-        <v>48.56962305236074</v>
+        <v>82.35718691487254</v>
       </c>
       <c r="I43">
-        <v>131.1848621012493</v>
+        <v>222.4438966064662</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>101.5528130706695</v>
+        <v>172.1982482502658</v>
       </c>
       <c r="C44">
-        <v>1.448285133820276</v>
+        <v>2.455787835608295</v>
       </c>
       <c r="D44">
-        <v>2.796166888697847</v>
+        <v>4.741326463444175</v>
       </c>
       <c r="E44">
-        <v>6.270078952785016</v>
+        <v>10.63187300689633</v>
       </c>
       <c r="F44">
-        <v>2.317218442499326</v>
+        <v>3.929196489455379</v>
       </c>
       <c r="G44">
-        <v>26.49252166492405</v>
+        <v>44.92210195356685</v>
       </c>
       <c r="I44">
-        <v>140.8770841533961</v>
+        <v>238.8785339992368</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>204.1012419557574</v>
+        <v>346.0847146206323</v>
       </c>
       <c r="C45">
-        <v>2.252887985942652</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D45">
-        <v>2.796166888697847</v>
+        <v>4.741326463444175</v>
       </c>
       <c r="E45">
-        <v>3.918799345490634</v>
+        <v>6.644920629310206</v>
       </c>
       <c r="F45">
-        <v>3.128244897374089</v>
+        <v>5.304415260764762</v>
       </c>
       <c r="G45">
-        <v>55.19275346859177</v>
+        <v>93.58771240326425</v>
       </c>
       <c r="H45">
-        <v>2.197607270529149</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I45">
-        <v>273.5877018123836</v>
+        <v>463.9095813340417</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>605.3344151663441</v>
+        <v>1026.436617021192</v>
       </c>
       <c r="C46">
-        <v>2.896570267640552</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D46">
-        <v>17.70905696175303</v>
+        <v>30.02840093514645</v>
       </c>
       <c r="E46">
-        <v>17.24271712015879</v>
+        <v>29.2376507689649</v>
       </c>
       <c r="F46">
-        <v>7.183377171747911</v>
+        <v>12.18050911731168</v>
       </c>
       <c r="G46">
-        <v>105.9700866596962</v>
+        <v>179.6884078142674</v>
       </c>
       <c r="H46">
-        <v>0.7325357568430496</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I46">
-        <v>757.0687591041836</v>
+        <v>1283.725287176658</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1027.475520479715</v>
+        <v>1742.241099943865</v>
       </c>
       <c r="C47">
-        <v>2.091967415518177</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D47">
-        <v>24.23344636871468</v>
+        <v>41.0914960165162</v>
       </c>
       <c r="E47">
-        <v>46.24183227678947</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F47">
-        <v>9.848178380622137</v>
+        <v>16.69908508018536</v>
       </c>
       <c r="G47">
-        <v>145.7088691570822</v>
+        <v>247.0715607446177</v>
       </c>
       <c r="H47">
-        <v>8.790429082116598</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I47">
-        <v>1264.390243160558</v>
+        <v>2143.966064489643</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1613.893235172111</v>
+        <v>2736.601572683145</v>
       </c>
       <c r="C48">
-        <v>2.091967415518177</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D48">
-        <v>24.23344636871468</v>
+        <v>41.0914960165162</v>
       </c>
       <c r="E48">
-        <v>57.99823031326139</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F48">
-        <v>14.71433710987072</v>
+        <v>24.95039770804166</v>
       </c>
       <c r="G48">
-        <v>165.5782604057752</v>
+        <v>280.7631372097928</v>
       </c>
       <c r="H48">
-        <v>15.38325089370404</v>
+        <v>26.08464281975904</v>
       </c>
       <c r="I48">
-        <v>1893.892727678955</v>
+        <v>3211.383320846924</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1569.090523523286</v>
+        <v>2660.631757278616</v>
       </c>
       <c r="C49">
-        <v>3.540252549338453</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D49">
-        <v>26.09755762784657</v>
+        <v>44.252380325479</v>
       </c>
       <c r="E49">
-        <v>54.86319083686887</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F49">
-        <v>12.28125774524643</v>
+        <v>20.82474139411351</v>
       </c>
       <c r="G49">
-        <v>198.6939124869303</v>
+        <v>336.9157646517514</v>
       </c>
       <c r="H49">
-        <v>2.930143027372198</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I49">
-        <v>1867.496837796888</v>
+        <v>3166.625072786029</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>2562.715106312779</v>
+        <v>1507.625335885989</v>
       </c>
       <c r="C2">
-        <v>6.548767561622118</v>
+        <v>3.852588947717705</v>
       </c>
       <c r="D2">
-        <v>67.95901264269989</v>
+        <v>39.97975780044656</v>
       </c>
       <c r="E2">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F2">
-        <v>41.45302296375424</v>
+        <v>24.38649052923326</v>
       </c>
       <c r="G2">
-        <v>793.6238011796811</v>
+        <v>466.8827006456177</v>
       </c>
       <c r="H2">
-        <v>21.11613942551922</v>
+        <v>12.4224603490234</v>
       </c>
       <c r="I2">
-        <v>3565.180992882606</v>
+        <v>2097.368208681784</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1905.998257593627</v>
+        <v>1121.283928995573</v>
       </c>
       <c r="C3">
-        <v>6.821632876689707</v>
+        <v>4.013113487205941</v>
       </c>
       <c r="D3">
-        <v>66.37857048821849</v>
+        <v>39.04999599113386</v>
       </c>
       <c r="E3">
-        <v>50.50139678275755</v>
+        <v>29.70957836856952</v>
       </c>
       <c r="F3">
-        <v>43.22116138400916</v>
+        <v>25.42667258972189</v>
       </c>
       <c r="G3">
-        <v>557.7827659234553</v>
+        <v>328.1392565858351</v>
       </c>
       <c r="H3">
-        <v>16.1476360312794</v>
+        <v>9.499528502194362</v>
       </c>
       <c r="I3">
-        <v>2646.851421080037</v>
+        <v>1557.122074520234</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>2061.314324642886</v>
+        <v>1212.655161473512</v>
       </c>
       <c r="C4">
-        <v>7.367363506824884</v>
+        <v>4.334162566182417</v>
       </c>
       <c r="D4">
-        <v>55.31547540684873</v>
+        <v>32.54166332594485</v>
       </c>
       <c r="E4">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F4">
-        <v>35.55922822957118</v>
+        <v>20.91921699427119</v>
       </c>
       <c r="G4">
-        <v>550.2957489311938</v>
+        <v>323.7347028061596</v>
       </c>
       <c r="H4">
-        <v>7.452755091359722</v>
+        <v>4.384397770243552</v>
       </c>
       <c r="I4">
-        <v>2789.070038605235</v>
+        <v>1640.788179460071</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1921.192220674533</v>
+        <v>1130.222419129285</v>
       </c>
       <c r="C5">
-        <v>9.004555397230412</v>
+        <v>5.297309803111844</v>
       </c>
       <c r="D5">
-        <v>72.70033910614403</v>
+        <v>42.76904322838468</v>
       </c>
       <c r="E5">
-        <v>58.47530153792981</v>
+        <v>34.40056442676471</v>
       </c>
       <c r="F5">
-        <v>29.86189331986089</v>
+        <v>17.56751924380785</v>
       </c>
       <c r="G5">
-        <v>497.8866299853661</v>
+        <v>292.9028263484302</v>
       </c>
       <c r="H5">
-        <v>13.66338433415949</v>
+        <v>8.038062578779845</v>
       </c>
       <c r="I5">
-        <v>2602.784324355224</v>
+        <v>1531.197744758564</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1995.473817958961</v>
+        <v>1173.921704227429</v>
       </c>
       <c r="C6">
-        <v>10.91461260270353</v>
+        <v>6.420981579529506</v>
       </c>
       <c r="D6">
-        <v>61.63724402477429</v>
+        <v>36.26071056319573</v>
       </c>
       <c r="E6">
-        <v>75.75209517413634</v>
+        <v>44.56436755285426</v>
       </c>
       <c r="F6">
-        <v>34.57692910720733</v>
+        <v>20.34133807177752</v>
       </c>
       <c r="G6">
-        <v>516.6041724660188</v>
+        <v>303.9142107976191</v>
       </c>
       <c r="H6">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I6">
-        <v>2709.864381516521</v>
+        <v>1594.192108332893</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1961.709455556949</v>
+        <v>1154.058392819182</v>
       </c>
       <c r="C7">
-        <v>8.731690082162826</v>
+        <v>5.136785263623607</v>
       </c>
       <c r="D7">
-        <v>75.86122341510681</v>
+        <v>44.62856684701008</v>
       </c>
       <c r="E7">
-        <v>57.14631741206778</v>
+        <v>33.61873341706551</v>
       </c>
       <c r="F7">
-        <v>38.89904524560827</v>
+        <v>22.88400533074971</v>
       </c>
       <c r="G7">
-        <v>527.8346979544107</v>
+        <v>310.5210414671325</v>
       </c>
       <c r="H7">
-        <v>13.66338433415949</v>
+        <v>8.038062578779845</v>
       </c>
       <c r="I7">
-        <v>2683.845814000465</v>
+        <v>1578.885587723543</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>2066.378979003189</v>
+        <v>1215.63465818475</v>
       </c>
       <c r="C8">
-        <v>9.550286027365589</v>
+        <v>5.618358882088319</v>
       </c>
       <c r="D8">
-        <v>52.15459109788594</v>
+        <v>30.68213970731944</v>
       </c>
       <c r="E8">
-        <v>61.1332697896539</v>
+        <v>35.96422644616311</v>
       </c>
       <c r="F8">
-        <v>34.96984875615286</v>
+        <v>20.57248964077498</v>
       </c>
       <c r="G8">
-        <v>404.2989175821018</v>
+        <v>237.8459041024846</v>
       </c>
       <c r="H8">
-        <v>17.38976187983935</v>
+        <v>10.23026146390162</v>
       </c>
       <c r="I8">
-        <v>2645.875654136187</v>
+        <v>1556.548038427482</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>2819.324260568077</v>
+        <v>1658.58650258867</v>
       </c>
       <c r="C9">
-        <v>5.457306301351766</v>
+        <v>3.210490789764753</v>
       </c>
       <c r="D9">
-        <v>104.3091821957719</v>
+        <v>61.36427941463889</v>
       </c>
       <c r="E9">
-        <v>82.39701580344658</v>
+        <v>48.47352260135027</v>
       </c>
       <c r="F9">
-        <v>38.70258542113547</v>
+        <v>22.76842954625097</v>
       </c>
       <c r="G9">
-        <v>393.06839209371</v>
+        <v>231.2390734329711</v>
       </c>
       <c r="H9">
-        <v>12.42125848559954</v>
+        <v>7.307329617072588</v>
       </c>
       <c r="I9">
-        <v>3455.680000869092</v>
+        <v>2032.949627990718</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>3437.212092524912</v>
+        <v>2022.0851013596</v>
       </c>
       <c r="C10">
-        <v>7.367363506824884</v>
+        <v>4.334162566182417</v>
       </c>
       <c r="D10">
-        <v>61.63724402477429</v>
+        <v>36.26071056319573</v>
       </c>
       <c r="E10">
-        <v>83.72599992930857</v>
+        <v>49.25535361104946</v>
       </c>
       <c r="F10">
-        <v>23.18225928778674</v>
+        <v>13.63794257085083</v>
       </c>
       <c r="G10">
-        <v>149.7403398452228</v>
+        <v>88.09107559351278</v>
       </c>
       <c r="H10">
-        <v>27.32676866831898</v>
+        <v>16.07612515755969</v>
       </c>
       <c r="I10">
-        <v>3790.192067787148</v>
+        <v>2229.740471421951</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>3310.595733517364</v>
+        <v>1947.597683578671</v>
       </c>
       <c r="C11">
-        <v>6.548767561622118</v>
+        <v>3.852588947717705</v>
       </c>
       <c r="D11">
-        <v>52.15459109788594</v>
+        <v>30.68213970731944</v>
       </c>
       <c r="E11">
-        <v>98.34482531379108</v>
+        <v>57.85549471774064</v>
       </c>
       <c r="F11">
-        <v>16.50262525571259</v>
+        <v>9.708365897893811</v>
       </c>
       <c r="G11">
-        <v>93.58771240326425</v>
+        <v>55.05692224594549</v>
       </c>
       <c r="H11">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I11">
-        <v>3582.70275854388</v>
+        <v>2107.676126942117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>2382.075767462009</v>
+        <v>1401.356619851864</v>
       </c>
       <c r="C12">
-        <v>9.004555397230412</v>
+        <v>5.297309803111844</v>
       </c>
       <c r="D12">
-        <v>45.83282247996039</v>
+        <v>26.9630924700686</v>
       </c>
       <c r="E12">
-        <v>93.02888881034285</v>
+        <v>54.72817067894384</v>
       </c>
       <c r="F12">
-        <v>10.41237069705675</v>
+        <v>6.125516578432999</v>
       </c>
       <c r="G12">
-        <v>127.2792888684395</v>
+        <v>74.87741425448588</v>
       </c>
       <c r="H12">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I12">
-        <v>2670.117945412159</v>
+        <v>1570.809589560322</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1718.606046262456</v>
+        <v>1011.0425506798</v>
       </c>
       <c r="C13">
-        <v>14.18899638351459</v>
+        <v>8.347276053388359</v>
       </c>
       <c r="D13">
-        <v>33.18928524410924</v>
+        <v>19.52499799556693</v>
       </c>
       <c r="E13">
-        <v>79.73904755172245</v>
+        <v>46.90986058195185</v>
       </c>
       <c r="F13">
-        <v>8.447772452329064</v>
+        <v>4.96975873344564</v>
       </c>
       <c r="G13">
-        <v>131.02279736457</v>
+        <v>77.0796911443237</v>
       </c>
       <c r="H13">
-        <v>6.210629242799769</v>
+        <v>3.653664808536294</v>
       </c>
       <c r="I13">
-        <v>1991.404574501501</v>
+        <v>1171.527799997013</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>1288.110425636791</v>
+        <v>757.7853302246438</v>
       </c>
       <c r="C14">
-        <v>8.18595945202765</v>
+        <v>4.81573618464713</v>
       </c>
       <c r="D14">
-        <v>17.38486369929531</v>
+        <v>10.22737990243981</v>
       </c>
       <c r="E14">
-        <v>78.41006342586041</v>
+        <v>46.12802957225267</v>
       </c>
       <c r="F14">
-        <v>5.304415260764762</v>
+        <v>3.120546181465867</v>
       </c>
       <c r="G14">
-        <v>67.38315293035029</v>
+        <v>39.64098401708077</v>
       </c>
       <c r="H14">
-        <v>6.210629242799769</v>
+        <v>3.653664808536294</v>
       </c>
       <c r="I14">
-        <v>1470.989509647889</v>
+        <v>865.3716708910663</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>812.0329157684098</v>
+        <v>477.7126393683534</v>
       </c>
       <c r="C15">
-        <v>10.91461260270353</v>
+        <v>6.420981579529506</v>
       </c>
       <c r="D15">
-        <v>17.38486369929531</v>
+        <v>10.22737990243981</v>
       </c>
       <c r="E15">
-        <v>43.85647615344735</v>
+        <v>25.80042332007352</v>
       </c>
       <c r="F15">
-        <v>4.715035787346452</v>
+        <v>2.773818827969661</v>
       </c>
       <c r="G15">
-        <v>48.66561044969741</v>
+        <v>28.62959956789166</v>
       </c>
       <c r="H15">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I15">
-        <v>940.0537661580198</v>
+        <v>553.026308489672</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>477.7657279884824</v>
+        <v>281.0658564267026</v>
       </c>
       <c r="C16">
-        <v>6.27590224655453</v>
+        <v>3.692064408229467</v>
       </c>
       <c r="D16">
-        <v>6.321768617925569</v>
+        <v>3.719047237250842</v>
       </c>
       <c r="E16">
-        <v>19.93476188793061</v>
+        <v>11.72746514548796</v>
       </c>
       <c r="F16">
-        <v>4.322116138400917</v>
+        <v>2.54266725897219</v>
       </c>
       <c r="G16">
-        <v>82.35718691487254</v>
+        <v>48.45009157643204</v>
       </c>
       <c r="H16">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I16">
-        <v>599.4617154912864</v>
+        <v>352.6586579764895</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>288.68529853721</v>
+        <v>169.8313125405164</v>
       </c>
       <c r="C17">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D17">
-        <v>1.580442154481392</v>
+        <v>0.9297618093127106</v>
       </c>
       <c r="E17">
-        <v>7.973904755172247</v>
+        <v>4.690986058195186</v>
       </c>
       <c r="F17">
-        <v>6.286714383128607</v>
+        <v>3.698425103959546</v>
       </c>
       <c r="G17">
-        <v>78.61367841874201</v>
+        <v>46.24781468659423</v>
       </c>
       <c r="H17">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I17">
-        <v>389.0208744534432</v>
+        <v>228.8579503315854</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>216.0919193728824</v>
+        <v>127.1251930127843</v>
       </c>
       <c r="C18">
-        <v>7.094498191757294</v>
+        <v>4.17363802669418</v>
       </c>
       <c r="D18">
-        <v>3.160884308962784</v>
+        <v>1.859523618625421</v>
       </c>
       <c r="E18">
-        <v>2.657968251724081</v>
+        <v>1.563662019398395</v>
       </c>
       <c r="F18">
-        <v>5.304415260764762</v>
+        <v>3.120546181465867</v>
       </c>
       <c r="G18">
-        <v>56.15262744195856</v>
+        <v>33.0341533475673</v>
       </c>
       <c r="I18">
-        <v>290.4623128280498</v>
+        <v>170.8767162065354</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>126.6163590075483</v>
+        <v>74.48741778092828</v>
       </c>
       <c r="C19">
-        <v>3.274383780811059</v>
+        <v>1.926294473858852</v>
       </c>
       <c r="D19">
-        <v>4.741326463444175</v>
+        <v>2.78928542793813</v>
       </c>
       <c r="E19">
-        <v>1.328984125862041</v>
+        <v>0.7818310096991975</v>
       </c>
       <c r="F19">
-        <v>4.125656313928148</v>
+        <v>2.427091474473453</v>
       </c>
       <c r="G19">
-        <v>82.35718691487254</v>
+        <v>48.45009157643204</v>
       </c>
       <c r="I19">
-        <v>222.4438966064662</v>
+        <v>130.86201174333</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>172.1982482502658</v>
+        <v>101.3028881820624</v>
       </c>
       <c r="C20">
-        <v>2.455787835608295</v>
+        <v>1.444720855394139</v>
       </c>
       <c r="D20">
-        <v>4.741326463444175</v>
+        <v>2.78928542793813</v>
       </c>
       <c r="E20">
-        <v>10.63187300689633</v>
+        <v>6.25464807759358</v>
       </c>
       <c r="F20">
-        <v>3.929196489455379</v>
+        <v>2.311515689974716</v>
       </c>
       <c r="G20">
-        <v>44.92210195356685</v>
+        <v>26.42732267805385</v>
       </c>
       <c r="I20">
-        <v>238.8785339992368</v>
+        <v>140.5303809110168</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>346.0847146206323</v>
+        <v>203.5989419345373</v>
       </c>
       <c r="C21">
-        <v>3.820114410946235</v>
+        <v>2.247343552835328</v>
       </c>
       <c r="D21">
-        <v>4.741326463444175</v>
+        <v>2.78928542793813</v>
       </c>
       <c r="E21">
-        <v>6.644920629310206</v>
+        <v>3.909155048495989</v>
       </c>
       <c r="F21">
-        <v>5.304415260764762</v>
+        <v>3.120546181465867</v>
       </c>
       <c r="G21">
-        <v>93.58771240326425</v>
+        <v>55.05692224594549</v>
       </c>
       <c r="H21">
-        <v>3.726377545679861</v>
+        <v>2.192198885121776</v>
       </c>
       <c r="I21">
-        <v>463.9095813340417</v>
+        <v>272.9143932763399</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>1026.436617021192</v>
+        <v>603.8446668107254</v>
       </c>
       <c r="C22">
-        <v>4.91157567121659</v>
+        <v>2.889441710788279</v>
       </c>
       <c r="D22">
-        <v>30.02840093514645</v>
+        <v>17.6654743769415</v>
       </c>
       <c r="E22">
-        <v>29.2376507689649</v>
+        <v>17.20028221338235</v>
       </c>
       <c r="F22">
-        <v>12.18050911731168</v>
+        <v>7.165698638921621</v>
       </c>
       <c r="G22">
-        <v>179.6884078142674</v>
+        <v>105.7092907122154</v>
       </c>
       <c r="H22">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I22">
-        <v>1283.725287176658</v>
+        <v>755.2055874246819</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1742.241099943865</v>
+        <v>1024.946868665573</v>
       </c>
       <c r="C23">
-        <v>3.547249095878647</v>
+        <v>2.08681901334709</v>
       </c>
       <c r="D23">
-        <v>41.0914960165162</v>
+        <v>24.17380704213047</v>
       </c>
       <c r="E23">
-        <v>78.41006342586041</v>
+        <v>46.12802957225267</v>
       </c>
       <c r="F23">
-        <v>16.69908508018536</v>
+        <v>9.823941682392547</v>
       </c>
       <c r="G23">
-        <v>247.0715607446177</v>
+        <v>145.3502747292961</v>
       </c>
       <c r="H23">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I23">
-        <v>2143.966064489643</v>
+        <v>1261.278536245479</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>2736.601572683145</v>
+        <v>1609.921389638463</v>
       </c>
       <c r="C24">
-        <v>3.547249095878647</v>
+        <v>2.08681901334709</v>
       </c>
       <c r="D24">
-        <v>41.0914960165162</v>
+        <v>24.17380704213047</v>
       </c>
       <c r="E24">
-        <v>98.34482531379108</v>
+        <v>57.85549471774064</v>
       </c>
       <c r="F24">
-        <v>24.95039770804166</v>
+        <v>14.67812463133945</v>
       </c>
       <c r="G24">
-        <v>280.7631372097928</v>
+        <v>165.1707667378365</v>
       </c>
       <c r="H24">
-        <v>26.08464281975904</v>
+        <v>15.34539219585243</v>
       </c>
       <c r="I24">
-        <v>3211.383320846924</v>
+        <v>1889.231793976709</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>2660.631757278616</v>
+        <v>1565.228938969905</v>
       </c>
       <c r="C25">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D25">
-        <v>44.252380325479</v>
+        <v>26.0333306607559</v>
       </c>
       <c r="E25">
-        <v>93.02888881034285</v>
+        <v>54.72817067894384</v>
       </c>
       <c r="F25">
-        <v>20.82474139411351</v>
+        <v>12.251033156866</v>
       </c>
       <c r="G25">
-        <v>336.9157646517514</v>
+        <v>198.2049200854038</v>
       </c>
       <c r="H25">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I25">
-        <v>3166.625072786029</v>
+        <v>1862.900865267445</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>2562.715106312779</v>
+        <v>1507.625335885989</v>
       </c>
       <c r="C26">
-        <v>6.548767561622118</v>
+        <v>3.852588947717705</v>
       </c>
       <c r="D26">
-        <v>67.95901264269989</v>
+        <v>39.97975780044656</v>
       </c>
       <c r="E26">
-        <v>71.76514279655021</v>
+        <v>42.21887452375667</v>
       </c>
       <c r="F26">
-        <v>41.45302296375424</v>
+        <v>24.38649052923326</v>
       </c>
       <c r="G26">
-        <v>793.6238011796811</v>
+        <v>466.8827006456177</v>
       </c>
       <c r="H26">
-        <v>21.11613942551922</v>
+        <v>12.4224603490234</v>
       </c>
       <c r="I26">
-        <v>3565.180992882606</v>
+        <v>2097.368208681784</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>2091.702250804698</v>
+        <v>1230.532141740934</v>
       </c>
       <c r="C27">
-        <v>7.367363506824884</v>
+        <v>4.334162566182417</v>
       </c>
       <c r="D27">
-        <v>44.252380325479</v>
+        <v>26.0333306607559</v>
       </c>
       <c r="E27">
-        <v>70.43615867068817</v>
+        <v>41.43704351405749</v>
       </c>
       <c r="F27">
-        <v>40.07780419244486</v>
+        <v>23.57746003774211</v>
       </c>
       <c r="G27">
-        <v>685.0620547918945</v>
+        <v>403.0166708403211</v>
       </c>
       <c r="H27">
-        <v>16.1476360312794</v>
+        <v>9.499528502194362</v>
       </c>
       <c r="I27">
-        <v>2955.04564832331</v>
+        <v>1738.430337862188</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>2247.018317853958</v>
+        <v>1321.903374218875</v>
       </c>
       <c r="C28">
-        <v>13.09753512324424</v>
+        <v>7.705177895435409</v>
       </c>
       <c r="D28">
-        <v>66.37857048821849</v>
+        <v>39.04999599113386</v>
       </c>
       <c r="E28">
-        <v>78.41006342586041</v>
+        <v>46.12802957225267</v>
       </c>
       <c r="F28">
-        <v>29.86189331986089</v>
+        <v>17.56751924380785</v>
       </c>
       <c r="G28">
-        <v>610.1918848692832</v>
+        <v>358.9711330435646</v>
       </c>
       <c r="H28">
-        <v>11.17913263703958</v>
+        <v>6.576596655365329</v>
       </c>
       <c r="I28">
-        <v>3056.137397717464</v>
+        <v>1797.901826620434</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>2030.926398481075</v>
+        <v>1194.77818120609</v>
       </c>
       <c r="C29">
-        <v>6.27590224655453</v>
+        <v>3.692064408229467</v>
       </c>
       <c r="D29">
-        <v>60.05680187029291</v>
+        <v>35.330948753883</v>
       </c>
       <c r="E29">
-        <v>85.05498405517061</v>
+        <v>50.03718462074864</v>
       </c>
       <c r="F29">
-        <v>26.32561647935103</v>
+        <v>15.4871551228306</v>
       </c>
       <c r="G29">
-        <v>385.5813751014487</v>
+        <v>226.8345196532955</v>
       </c>
       <c r="H29">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I29">
-        <v>2596.705329931012</v>
+        <v>1527.621519688491</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>2132.219485687114</v>
+        <v>1254.368115430832</v>
       </c>
       <c r="C30">
-        <v>6.821632876689707</v>
+        <v>4.013113487205941</v>
       </c>
       <c r="D30">
-        <v>56.89591756133013</v>
+        <v>33.47142513525757</v>
       </c>
       <c r="E30">
-        <v>70.43615867068817</v>
+        <v>41.43704351405749</v>
       </c>
       <c r="F30">
-        <v>40.47072384139041</v>
+        <v>23.8086116067396</v>
       </c>
       <c r="G30">
-        <v>471.6820705124519</v>
+        <v>277.4868881195652</v>
       </c>
       <c r="H30">
-        <v>9.937006788479632</v>
+        <v>5.845863693658069</v>
       </c>
       <c r="I30">
-        <v>2788.462995938144</v>
+        <v>1640.431060987316</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>2179.489593049931</v>
+        <v>1282.176751402378</v>
       </c>
       <c r="C31">
-        <v>6.821632876689707</v>
+        <v>4.013113487205941</v>
       </c>
       <c r="D31">
-        <v>60.05680187029291</v>
+        <v>35.330948753883</v>
       </c>
       <c r="E31">
-        <v>74.42311104827431</v>
+        <v>43.78253654315508</v>
       </c>
       <c r="F31">
-        <v>32.21941121353411</v>
+        <v>18.95442865779267</v>
       </c>
       <c r="G31">
-        <v>437.9904940472769</v>
+        <v>257.6663961110248</v>
       </c>
       <c r="H31">
-        <v>24.84251697119907</v>
+        <v>14.61465923414518</v>
       </c>
       <c r="I31">
-        <v>2815.843561077199</v>
+        <v>1656.538834189585</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>2564.403324432877</v>
+        <v>1508.6185014564</v>
       </c>
       <c r="C32">
-        <v>7.367363506824884</v>
+        <v>4.334162566182417</v>
       </c>
       <c r="D32">
-        <v>37.9306117075534</v>
+        <v>22.31428342350504</v>
       </c>
       <c r="E32">
-        <v>81.06803167758451</v>
+        <v>47.69169159165106</v>
       </c>
       <c r="F32">
-        <v>38.11320594771718</v>
+        <v>22.42170219275476</v>
       </c>
       <c r="G32">
-        <v>411.7859345743627</v>
+        <v>242.2504578821602</v>
       </c>
       <c r="H32">
-        <v>17.38976187983935</v>
+        <v>10.23026146390162</v>
       </c>
       <c r="I32">
-        <v>3158.058233726759</v>
+        <v>1857.861060576555</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>2819.324260568077</v>
+        <v>1658.58650258867</v>
       </c>
       <c r="C33">
-        <v>5.457306301351766</v>
+        <v>3.210490789764753</v>
       </c>
       <c r="D33">
-        <v>104.3091821957719</v>
+        <v>61.36427941463889</v>
       </c>
       <c r="E33">
-        <v>82.39701580344658</v>
+        <v>48.47352260135027</v>
       </c>
       <c r="F33">
-        <v>38.70258542113547</v>
+        <v>22.76842954625097</v>
       </c>
       <c r="G33">
-        <v>393.06839209371</v>
+        <v>231.2390734329711</v>
       </c>
       <c r="H33">
-        <v>12.42125848559954</v>
+        <v>7.307329617072588</v>
       </c>
       <c r="I33">
-        <v>3455.680000869092</v>
+        <v>2032.949627990718</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>3437.212092524912</v>
+        <v>2022.0851013596</v>
       </c>
       <c r="C34">
-        <v>7.367363506824884</v>
+        <v>4.334162566182417</v>
       </c>
       <c r="D34">
-        <v>61.63724402477429</v>
+        <v>36.26071056319573</v>
       </c>
       <c r="E34">
-        <v>83.72599992930857</v>
+        <v>49.25535361104946</v>
       </c>
       <c r="F34">
-        <v>23.18225928778674</v>
+        <v>13.63794257085083</v>
       </c>
       <c r="G34">
-        <v>149.7403398452228</v>
+        <v>88.09107559351278</v>
       </c>
       <c r="H34">
-        <v>27.32676866831898</v>
+        <v>16.07612515755969</v>
       </c>
       <c r="I34">
-        <v>3790.192067787148</v>
+        <v>2229.740471421951</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>3310.595733517364</v>
+        <v>1947.597683578671</v>
       </c>
       <c r="C35">
-        <v>6.548767561622118</v>
+        <v>3.852588947717705</v>
       </c>
       <c r="D35">
-        <v>52.15459109788594</v>
+        <v>30.68213970731944</v>
       </c>
       <c r="E35">
-        <v>98.34482531379108</v>
+        <v>57.85549471774064</v>
       </c>
       <c r="F35">
-        <v>16.50262525571259</v>
+        <v>9.708365897893811</v>
       </c>
       <c r="G35">
-        <v>93.58771240326425</v>
+        <v>55.05692224594549</v>
       </c>
       <c r="H35">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I35">
-        <v>3582.70275854388</v>
+        <v>2107.676126942117</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>2382.075767462009</v>
+        <v>1401.356619851864</v>
       </c>
       <c r="C36">
-        <v>9.004555397230412</v>
+        <v>5.297309803111844</v>
       </c>
       <c r="D36">
-        <v>45.83282247996039</v>
+        <v>26.9630924700686</v>
       </c>
       <c r="E36">
-        <v>93.02888881034285</v>
+        <v>54.72817067894384</v>
       </c>
       <c r="F36">
-        <v>10.41237069705675</v>
+        <v>6.125516578432999</v>
       </c>
       <c r="G36">
-        <v>127.2792888684395</v>
+        <v>74.87741425448588</v>
       </c>
       <c r="H36">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I36">
-        <v>2670.117945412159</v>
+        <v>1570.809589560322</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1718.606046262456</v>
+        <v>1011.0425506798</v>
       </c>
       <c r="C37">
-        <v>14.18899638351459</v>
+        <v>8.347276053388359</v>
       </c>
       <c r="D37">
-        <v>33.18928524410924</v>
+        <v>19.52499799556693</v>
       </c>
       <c r="E37">
-        <v>79.73904755172245</v>
+        <v>46.90986058195185</v>
       </c>
       <c r="F37">
-        <v>8.447772452329064</v>
+        <v>4.96975873344564</v>
       </c>
       <c r="G37">
-        <v>131.02279736457</v>
+        <v>77.0796911443237</v>
       </c>
       <c r="H37">
-        <v>6.210629242799769</v>
+        <v>3.653664808536294</v>
       </c>
       <c r="I37">
-        <v>1991.404574501501</v>
+        <v>1171.527799997013</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>1288.110425636791</v>
+        <v>757.7853302246438</v>
       </c>
       <c r="C38">
-        <v>8.18595945202765</v>
+        <v>4.81573618464713</v>
       </c>
       <c r="D38">
-        <v>17.38486369929531</v>
+        <v>10.22737990243981</v>
       </c>
       <c r="E38">
-        <v>78.41006342586041</v>
+        <v>46.12802957225267</v>
       </c>
       <c r="F38">
-        <v>5.304415260764762</v>
+        <v>3.120546181465867</v>
       </c>
       <c r="G38">
-        <v>67.38315293035029</v>
+        <v>39.64098401708077</v>
       </c>
       <c r="H38">
-        <v>6.210629242799769</v>
+        <v>3.653664808536294</v>
       </c>
       <c r="I38">
-        <v>1470.989509647889</v>
+        <v>865.3716708910663</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>812.0329157684098</v>
+        <v>477.7126393683534</v>
       </c>
       <c r="C39">
-        <v>10.91461260270353</v>
+        <v>6.420981579529506</v>
       </c>
       <c r="D39">
-        <v>17.38486369929531</v>
+        <v>10.22737990243981</v>
       </c>
       <c r="E39">
-        <v>43.85647615344735</v>
+        <v>25.80042332007352</v>
       </c>
       <c r="F39">
-        <v>4.715035787346452</v>
+        <v>2.773818827969661</v>
       </c>
       <c r="G39">
-        <v>48.66561044969741</v>
+        <v>28.62959956789166</v>
       </c>
       <c r="H39">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I39">
-        <v>940.0537661580198</v>
+        <v>553.026308489672</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>477.7657279884824</v>
+        <v>281.0658564267026</v>
       </c>
       <c r="C40">
-        <v>6.27590224655453</v>
+        <v>3.692064408229467</v>
       </c>
       <c r="D40">
-        <v>6.321768617925569</v>
+        <v>3.719047237250842</v>
       </c>
       <c r="E40">
-        <v>19.93476188793061</v>
+        <v>11.72746514548796</v>
       </c>
       <c r="F40">
-        <v>4.322116138400917</v>
+        <v>2.54266725897219</v>
       </c>
       <c r="G40">
-        <v>82.35718691487254</v>
+        <v>48.45009157643204</v>
       </c>
       <c r="H40">
-        <v>2.484251697119908</v>
+        <v>1.461465923414517</v>
       </c>
       <c r="I40">
-        <v>599.4617154912864</v>
+        <v>352.6586579764895</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>288.68529853721</v>
+        <v>169.8313125405164</v>
       </c>
       <c r="C41">
-        <v>4.638710356149001</v>
+        <v>2.72891717130004</v>
       </c>
       <c r="D41">
-        <v>1.580442154481392</v>
+        <v>0.9297618093127106</v>
       </c>
       <c r="E41">
-        <v>7.973904755172247</v>
+        <v>4.690986058195186</v>
       </c>
       <c r="F41">
-        <v>6.286714383128607</v>
+        <v>3.698425103959546</v>
       </c>
       <c r="G41">
-        <v>78.61367841874201</v>
+        <v>46.24781468659423</v>
       </c>
       <c r="H41">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I41">
-        <v>389.0208744534432</v>
+        <v>228.8579503315854</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>216.0919193728824</v>
+        <v>127.1251930127843</v>
       </c>
       <c r="C42">
-        <v>7.094498191757294</v>
+        <v>4.17363802669418</v>
       </c>
       <c r="D42">
-        <v>3.160884308962784</v>
+        <v>1.859523618625421</v>
       </c>
       <c r="E42">
-        <v>2.657968251724081</v>
+        <v>1.563662019398395</v>
       </c>
       <c r="F42">
-        <v>5.304415260764762</v>
+        <v>3.120546181465867</v>
       </c>
       <c r="G42">
-        <v>56.15262744195856</v>
+        <v>33.0341533475673</v>
       </c>
       <c r="I42">
-        <v>290.4623128280498</v>
+        <v>170.8767162065354</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>126.6163590075483</v>
+        <v>74.48741778092828</v>
       </c>
       <c r="C43">
-        <v>3.274383780811059</v>
+        <v>1.926294473858852</v>
       </c>
       <c r="D43">
-        <v>4.741326463444175</v>
+        <v>2.78928542793813</v>
       </c>
       <c r="E43">
-        <v>1.328984125862041</v>
+        <v>0.7818310096991975</v>
       </c>
       <c r="F43">
-        <v>4.125656313928148</v>
+        <v>2.427091474473453</v>
       </c>
       <c r="G43">
-        <v>82.35718691487254</v>
+        <v>48.45009157643204</v>
       </c>
       <c r="I43">
-        <v>222.4438966064662</v>
+        <v>130.86201174333</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>172.1982482502658</v>
+        <v>101.3028881820624</v>
       </c>
       <c r="C44">
-        <v>2.455787835608295</v>
+        <v>1.444720855394139</v>
       </c>
       <c r="D44">
-        <v>4.741326463444175</v>
+        <v>2.78928542793813</v>
       </c>
       <c r="E44">
-        <v>10.63187300689633</v>
+        <v>6.25464807759358</v>
       </c>
       <c r="F44">
-        <v>3.929196489455379</v>
+        <v>2.311515689974716</v>
       </c>
       <c r="G44">
-        <v>44.92210195356685</v>
+        <v>26.42732267805385</v>
       </c>
       <c r="I44">
-        <v>238.8785339992368</v>
+        <v>140.5303809110168</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>346.0847146206323</v>
+        <v>203.5989419345373</v>
       </c>
       <c r="C45">
-        <v>3.820114410946235</v>
+        <v>2.247343552835328</v>
       </c>
       <c r="D45">
-        <v>4.741326463444175</v>
+        <v>2.78928542793813</v>
       </c>
       <c r="E45">
-        <v>6.644920629310206</v>
+        <v>3.909155048495989</v>
       </c>
       <c r="F45">
-        <v>5.304415260764762</v>
+        <v>3.120546181465867</v>
       </c>
       <c r="G45">
-        <v>93.58771240326425</v>
+        <v>55.05692224594549</v>
       </c>
       <c r="H45">
-        <v>3.726377545679861</v>
+        <v>2.192198885121776</v>
       </c>
       <c r="I45">
-        <v>463.9095813340417</v>
+        <v>272.9143932763399</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>1026.436617021192</v>
+        <v>603.8446668107254</v>
       </c>
       <c r="C46">
-        <v>4.91157567121659</v>
+        <v>2.889441710788279</v>
       </c>
       <c r="D46">
-        <v>30.02840093514645</v>
+        <v>17.6654743769415</v>
       </c>
       <c r="E46">
-        <v>29.2376507689649</v>
+        <v>17.20028221338235</v>
       </c>
       <c r="F46">
-        <v>12.18050911731168</v>
+        <v>7.165698638921621</v>
       </c>
       <c r="G46">
-        <v>179.6884078142674</v>
+        <v>105.7092907122154</v>
       </c>
       <c r="H46">
-        <v>1.242125848559954</v>
+        <v>0.7307329617072587</v>
       </c>
       <c r="I46">
-        <v>1283.725287176658</v>
+        <v>755.2055874246819</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1742.241099943865</v>
+        <v>1024.946868665573</v>
       </c>
       <c r="C47">
-        <v>3.547249095878647</v>
+        <v>2.08681901334709</v>
       </c>
       <c r="D47">
-        <v>41.0914960165162</v>
+        <v>24.17380704213047</v>
       </c>
       <c r="E47">
-        <v>78.41006342586041</v>
+        <v>46.12802957225267</v>
       </c>
       <c r="F47">
-        <v>16.69908508018536</v>
+        <v>9.823941682392547</v>
       </c>
       <c r="G47">
-        <v>247.0715607446177</v>
+        <v>145.3502747292961</v>
       </c>
       <c r="H47">
-        <v>14.90551018271944</v>
+        <v>8.768795540487105</v>
       </c>
       <c r="I47">
-        <v>2143.966064489643</v>
+        <v>1261.278536245479</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>2736.601572683145</v>
+        <v>1609.921389638463</v>
       </c>
       <c r="C48">
-        <v>3.547249095878647</v>
+        <v>2.08681901334709</v>
       </c>
       <c r="D48">
-        <v>41.0914960165162</v>
+        <v>24.17380704213047</v>
       </c>
       <c r="E48">
-        <v>98.34482531379108</v>
+        <v>57.85549471774064</v>
       </c>
       <c r="F48">
-        <v>24.95039770804166</v>
+        <v>14.67812463133945</v>
       </c>
       <c r="G48">
-        <v>280.7631372097928</v>
+        <v>165.1707667378365</v>
       </c>
       <c r="H48">
-        <v>26.08464281975904</v>
+        <v>15.34539219585243</v>
       </c>
       <c r="I48">
-        <v>3211.383320846924</v>
+        <v>1889.231793976709</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>2660.631757278616</v>
+        <v>1565.228938969905</v>
       </c>
       <c r="C49">
-        <v>6.003036931486943</v>
+        <v>3.53153986874123</v>
       </c>
       <c r="D49">
-        <v>44.252380325479</v>
+        <v>26.0333306607559</v>
       </c>
       <c r="E49">
-        <v>93.02888881034285</v>
+        <v>54.72817067894384</v>
       </c>
       <c r="F49">
-        <v>20.82474139411351</v>
+        <v>12.251033156866</v>
       </c>
       <c r="G49">
-        <v>336.9157646517514</v>
+        <v>198.2049200854038</v>
       </c>
       <c r="H49">
-        <v>4.968503394239816</v>
+        <v>2.922931846829035</v>
       </c>
       <c r="I49">
-        <v>3166.625072786029</v>
+        <v>1862.900865267445</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
+++ b/output/경기동로_E_여름_배출량/경기동로_E_여름_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>1507.625335885989</v>
+        <v>504.1287104141225</v>
       </c>
       <c r="C2">
-        <v>3.852588947717705</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D2">
-        <v>39.97975780044656</v>
+        <v>66.77588292605093</v>
       </c>
       <c r="E2">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F2">
-        <v>24.38649052923326</v>
+        <v>37.21292750484784</v>
       </c>
       <c r="G2">
-        <v>466.8827006456177</v>
+        <v>788.6950475425971</v>
       </c>
       <c r="H2">
-        <v>12.4224603490234</v>
+        <v>21.11613942551922</v>
       </c>
       <c r="I2">
-        <v>2097.368208681784</v>
+        <v>1496.24261817131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>1121.283928995573</v>
+        <v>374.9415771130065</v>
       </c>
       <c r="C3">
-        <v>4.013113487205941</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D3">
-        <v>39.04999599113386</v>
+        <v>65.22295541614277</v>
       </c>
       <c r="E3">
-        <v>29.70957836856952</v>
+        <v>50.50139678275755</v>
       </c>
       <c r="F3">
-        <v>25.42667258972189</v>
+        <v>38.80020877282712</v>
       </c>
       <c r="G3">
-        <v>328.1392565858351</v>
+        <v>554.31868907475</v>
       </c>
       <c r="H3">
-        <v>9.499528502194362</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I3">
-        <v>1557.122074520234</v>
+        <v>1106.754096067453</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>1212.655161473512</v>
+        <v>405.4948322896199</v>
       </c>
       <c r="C4">
-        <v>4.334162566182417</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D4">
-        <v>32.54166332594485</v>
+        <v>54.35246284678564</v>
       </c>
       <c r="E4">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F4">
-        <v>20.91921699427119</v>
+        <v>31.92198994491685</v>
       </c>
       <c r="G4">
-        <v>323.7347028061596</v>
+        <v>546.87816975831</v>
       </c>
       <c r="H4">
-        <v>4.384397770243552</v>
+        <v>7.452755091359722</v>
       </c>
       <c r="I4">
-        <v>1640.788179460071</v>
+        <v>1125.232716234367</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>1130.222419129285</v>
+        <v>377.9304825107188</v>
       </c>
       <c r="C5">
-        <v>5.297309803111844</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D5">
-        <v>42.76904322838468</v>
+        <v>71.4346654557754</v>
       </c>
       <c r="E5">
-        <v>34.40056442676471</v>
+        <v>58.47530153792981</v>
       </c>
       <c r="F5">
-        <v>17.56751924380785</v>
+        <v>26.80741697031692</v>
       </c>
       <c r="G5">
-        <v>292.9028263484302</v>
+        <v>494.7945345432331</v>
       </c>
       <c r="H5">
-        <v>8.038062578779845</v>
+        <v>13.66338433415949</v>
       </c>
       <c r="I5">
-        <v>1531.197744758564</v>
+        <v>1052.110340749364</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>1173.921704227429</v>
+        <v>392.5429088995338</v>
       </c>
       <c r="C6">
-        <v>6.420981579529506</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D6">
-        <v>36.26071056319573</v>
+        <v>60.56417288641829</v>
       </c>
       <c r="E6">
-        <v>44.56436755285426</v>
+        <v>75.75209517413634</v>
       </c>
       <c r="F6">
-        <v>20.34133807177752</v>
+        <v>31.0401670182617</v>
       </c>
       <c r="G6">
-        <v>303.9142107976191</v>
+        <v>513.3958328343319</v>
       </c>
       <c r="H6">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I6">
-        <v>1594.192108332893</v>
+        <v>1099.115299598105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>1154.058392819182</v>
+        <v>385.9008969046178</v>
       </c>
       <c r="C7">
-        <v>5.136785263623607</v>
+        <v>8.731690082162826</v>
       </c>
       <c r="D7">
-        <v>44.62856684701008</v>
+        <v>74.54052047559171</v>
       </c>
       <c r="E7">
-        <v>33.61873341706551</v>
+        <v>57.14631741206778</v>
       </c>
       <c r="F7">
-        <v>22.88400533074971</v>
+        <v>34.9201878955444</v>
       </c>
       <c r="G7">
-        <v>310.5210414671325</v>
+        <v>524.5566118089914</v>
       </c>
       <c r="H7">
-        <v>8.038062578779845</v>
+        <v>13.66338433415949</v>
       </c>
       <c r="I7">
-        <v>1578.885587723543</v>
+        <v>1099.459608913135</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>1215.63465818475</v>
+        <v>406.4911340888573</v>
       </c>
       <c r="C8">
-        <v>5.618358882088319</v>
+        <v>9.550286027365589</v>
       </c>
       <c r="D8">
-        <v>30.68213970731944</v>
+        <v>51.24660782696933</v>
       </c>
       <c r="E8">
-        <v>35.96422644616311</v>
+        <v>61.1332697896539</v>
       </c>
       <c r="F8">
-        <v>20.57248964077498</v>
+        <v>31.39289618892377</v>
       </c>
       <c r="G8">
-        <v>237.8459041024846</v>
+        <v>401.7880430877381</v>
       </c>
       <c r="H8">
-        <v>10.23026146390162</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I8">
-        <v>1556.548038427482</v>
+        <v>978.9919988893473</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>1658.58650258867</v>
+        <v>554.6080015754835</v>
       </c>
       <c r="C9">
-        <v>3.210490789764753</v>
+        <v>5.457306301351766</v>
       </c>
       <c r="D9">
-        <v>61.36427941463889</v>
+        <v>102.4932156539387</v>
       </c>
       <c r="E9">
-        <v>48.47352260135027</v>
+        <v>82.39701580344658</v>
       </c>
       <c r="F9">
-        <v>22.76842954625097</v>
+        <v>34.74382331021336</v>
       </c>
       <c r="G9">
-        <v>231.2390734329711</v>
+        <v>390.6272641130787</v>
       </c>
       <c r="H9">
-        <v>7.307329617072588</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I9">
-        <v>2032.949627990718</v>
+        <v>1182.747885243112</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>2022.0851013596</v>
+        <v>676.156821082446</v>
       </c>
       <c r="C10">
-        <v>4.334162566182417</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D10">
-        <v>36.26071056319573</v>
+        <v>60.56417288641829</v>
       </c>
       <c r="E10">
-        <v>49.25535361104946</v>
+        <v>83.72599992930857</v>
       </c>
       <c r="F10">
-        <v>13.63794257085083</v>
+        <v>20.81102106906181</v>
       </c>
       <c r="G10">
-        <v>88.09107559351278</v>
+        <v>148.8103863287919</v>
       </c>
       <c r="H10">
-        <v>16.07612515755969</v>
+        <v>27.32676866831898</v>
       </c>
       <c r="I10">
-        <v>2229.740471421951</v>
+        <v>1024.76253347117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1947.597683578671</v>
+        <v>651.2492761015109</v>
       </c>
       <c r="C11">
-        <v>3.852588947717705</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D11">
-        <v>30.68213970731944</v>
+        <v>51.24660782696933</v>
       </c>
       <c r="E11">
-        <v>57.85549471774064</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F11">
-        <v>9.708365897893811</v>
+        <v>14.81462516780672</v>
       </c>
       <c r="G11">
-        <v>55.05692224594549</v>
+        <v>93.0064914554949</v>
       </c>
       <c r="H11">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I11">
-        <v>2107.676126942117</v>
+        <v>920.1790968214349</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>1401.356619851864</v>
+        <v>468.5939462413217</v>
       </c>
       <c r="C12">
-        <v>5.297309803111844</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D12">
-        <v>26.9630924700686</v>
+        <v>45.03489778733666</v>
       </c>
       <c r="E12">
-        <v>54.72817067894384</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F12">
-        <v>6.125516578432999</v>
+        <v>9.347323022544716</v>
       </c>
       <c r="G12">
-        <v>74.87741425448588</v>
+        <v>126.4888283794731</v>
       </c>
       <c r="H12">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I12">
-        <v>1570.809589560322</v>
+        <v>753.9826913353694</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>1011.0425506798</v>
+        <v>338.078410541223</v>
       </c>
       <c r="C13">
-        <v>8.347276053388359</v>
+        <v>14.18899638351459</v>
       </c>
       <c r="D13">
-        <v>19.52499799556693</v>
+        <v>32.61147770807138</v>
       </c>
       <c r="E13">
-        <v>46.90986058195185</v>
+        <v>79.73904755172245</v>
       </c>
       <c r="F13">
-        <v>4.96975873344564</v>
+        <v>7.583677169234389</v>
       </c>
       <c r="G13">
-        <v>77.0796911443237</v>
+        <v>130.2090880376929</v>
       </c>
       <c r="H13">
-        <v>3.653664808536294</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I13">
-        <v>1171.527799997013</v>
+        <v>608.6213266342584</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>757.7853302246438</v>
+        <v>253.3927576060442</v>
       </c>
       <c r="C14">
-        <v>4.81573618464713</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D14">
-        <v>10.22737990243981</v>
+        <v>17.08220260898977</v>
       </c>
       <c r="E14">
-        <v>46.12802957225267</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F14">
-        <v>3.120546181465867</v>
+        <v>4.761843803937872</v>
       </c>
       <c r="G14">
-        <v>39.64098401708077</v>
+        <v>66.96467384795636</v>
       </c>
       <c r="H14">
-        <v>3.653664808536294</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I14">
-        <v>865.3716708910663</v>
+        <v>435.0081299876161</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>477.7126393683534</v>
+        <v>159.7403884777291</v>
       </c>
       <c r="C15">
-        <v>6.420981579529506</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D15">
-        <v>10.22737990243981</v>
+        <v>17.08220260898977</v>
       </c>
       <c r="E15">
-        <v>25.80042332007352</v>
+        <v>43.85647615344735</v>
       </c>
       <c r="F15">
-        <v>2.773818827969661</v>
+        <v>4.232750047944776</v>
       </c>
       <c r="G15">
-        <v>28.62959956789166</v>
+        <v>48.36337555685738</v>
       </c>
       <c r="H15">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I15">
-        <v>553.026308489672</v>
+        <v>286.6740571447918</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>281.0658564267026</v>
+        <v>93.98446972806099</v>
       </c>
       <c r="C16">
-        <v>3.692064408229467</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D16">
-        <v>3.719047237250842</v>
+        <v>6.211710039632642</v>
       </c>
       <c r="E16">
-        <v>11.72746514548796</v>
+        <v>19.93476188793061</v>
       </c>
       <c r="F16">
-        <v>2.54266725897219</v>
+        <v>3.880020877282713</v>
       </c>
       <c r="G16">
-        <v>48.45009157643204</v>
+        <v>81.84571248083554</v>
       </c>
       <c r="H16">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I16">
-        <v>352.6586579764895</v>
+        <v>214.6168289574169</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,28 +873,28 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>169.8313125405164</v>
+        <v>56.78920255653155</v>
       </c>
       <c r="C17">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D17">
-        <v>0.9297618093127106</v>
+        <v>1.552927509908161</v>
       </c>
       <c r="E17">
-        <v>4.690986058195186</v>
+        <v>7.973904755172247</v>
       </c>
       <c r="F17">
-        <v>3.698425103959546</v>
+        <v>5.643666730593036</v>
       </c>
       <c r="G17">
-        <v>46.24781468659423</v>
+        <v>78.12545282261574</v>
       </c>
       <c r="H17">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I17">
-        <v>228.8579503315854</v>
+        <v>155.9659905795297</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -902,25 +902,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>127.1251930127843</v>
+        <v>42.50887676746221</v>
       </c>
       <c r="C18">
-        <v>4.17363802669418</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D18">
-        <v>1.859523618625421</v>
+        <v>3.105855019816321</v>
       </c>
       <c r="E18">
-        <v>1.563662019398395</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F18">
-        <v>3.120546181465867</v>
+        <v>4.761843803937872</v>
       </c>
       <c r="G18">
-        <v>33.0341533475673</v>
+        <v>55.80389487329697</v>
       </c>
       <c r="I18">
-        <v>170.8767162065354</v>
+        <v>115.9329369079947</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>74.48741778092828</v>
+        <v>24.90754498093489</v>
       </c>
       <c r="C19">
-        <v>1.926294473858852</v>
+        <v>3.274383780811059</v>
       </c>
       <c r="D19">
-        <v>2.78928542793813</v>
+        <v>4.658782529724482</v>
       </c>
       <c r="E19">
-        <v>0.7818310096991975</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F19">
-        <v>2.427091474473453</v>
+        <v>3.70365629195168</v>
       </c>
       <c r="G19">
-        <v>48.45009157643204</v>
+        <v>81.84571248083554</v>
       </c>
       <c r="I19">
-        <v>130.86201174333</v>
+        <v>119.7190641901197</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,25 +954,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>101.3028881820624</v>
+        <v>33.87426117407144</v>
       </c>
       <c r="C20">
-        <v>1.444720855394139</v>
+        <v>2.455787835608295</v>
       </c>
       <c r="D20">
-        <v>2.78928542793813</v>
+        <v>4.658782529724482</v>
       </c>
       <c r="E20">
-        <v>6.25464807759358</v>
+        <v>10.63187300689633</v>
       </c>
       <c r="F20">
-        <v>2.311515689974716</v>
+        <v>3.527291706620647</v>
       </c>
       <c r="G20">
-        <v>26.42732267805385</v>
+        <v>44.64311589863757</v>
       </c>
       <c r="I20">
-        <v>140.5303809110168</v>
+        <v>99.79111215155876</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -980,28 +980,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>203.5989419345373</v>
+        <v>68.08062294788866</v>
       </c>
       <c r="C21">
-        <v>2.247343552835328</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D21">
-        <v>2.78928542793813</v>
+        <v>4.658782529724482</v>
       </c>
       <c r="E21">
-        <v>3.909155048495989</v>
+        <v>6.644920629310206</v>
       </c>
       <c r="F21">
-        <v>3.120546181465867</v>
+        <v>4.761843803937872</v>
       </c>
       <c r="G21">
-        <v>55.05692224594549</v>
+        <v>93.0064914554949</v>
       </c>
       <c r="H21">
-        <v>2.192198885121776</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I21">
-        <v>272.9143932763399</v>
+        <v>184.6991533229822</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>603.8446668107254</v>
+        <v>201.9171646454454</v>
       </c>
       <c r="C22">
-        <v>2.889441710788279</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D22">
-        <v>17.6654743769415</v>
+        <v>29.50562268825506</v>
       </c>
       <c r="E22">
-        <v>17.20028221338235</v>
+        <v>29.2376507689649</v>
       </c>
       <c r="F22">
-        <v>7.165698638921621</v>
+        <v>10.93460429052401</v>
       </c>
       <c r="G22">
-        <v>105.7092907122154</v>
+        <v>178.5724635945503</v>
       </c>
       <c r="H22">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I22">
-        <v>755.2055874246819</v>
+        <v>456.3212075075162</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>1024.946868665573</v>
+        <v>342.7278189376639</v>
       </c>
       <c r="C23">
-        <v>2.08681901334709</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D23">
-        <v>24.17380704213047</v>
+        <v>40.37611525761218</v>
       </c>
       <c r="E23">
-        <v>46.12802957225267</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F23">
-        <v>9.823941682392547</v>
+        <v>14.99098975313775</v>
       </c>
       <c r="G23">
-        <v>145.3502747292961</v>
+        <v>245.5371374425067</v>
       </c>
       <c r="H23">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I23">
-        <v>1261.278536245479</v>
+        <v>740.4948840953791</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>1609.921389638463</v>
+        <v>538.3350721879397</v>
       </c>
       <c r="C24">
-        <v>2.08681901334709</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D24">
-        <v>24.17380704213047</v>
+        <v>40.37611525761218</v>
       </c>
       <c r="E24">
-        <v>57.85549471774064</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F24">
-        <v>14.67812463133945</v>
+        <v>22.3983023370411</v>
       </c>
       <c r="G24">
-        <v>165.1707667378365</v>
+        <v>279.0194743664848</v>
       </c>
       <c r="H24">
-        <v>15.34539219585243</v>
+        <v>26.08464281975904</v>
       </c>
       <c r="I24">
-        <v>1889.231793976709</v>
+        <v>1008.105681378506</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>1565.228938969905</v>
+        <v>523.3905451993782</v>
       </c>
       <c r="C25">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D25">
-        <v>26.0333306607559</v>
+        <v>43.48197027742851</v>
       </c>
       <c r="E25">
-        <v>54.72817067894384</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F25">
-        <v>12.251033156866</v>
+        <v>18.69464604508943</v>
       </c>
       <c r="G25">
-        <v>198.2049200854038</v>
+        <v>334.8233692397818</v>
       </c>
       <c r="H25">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I25">
-        <v>1862.900865267445</v>
+        <v>1024.390959897748</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>1507.625335885989</v>
+        <v>504.1287104141225</v>
       </c>
       <c r="C26">
-        <v>3.852588947717705</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D26">
-        <v>39.97975780044656</v>
+        <v>66.77588292605093</v>
       </c>
       <c r="E26">
-        <v>42.21887452375667</v>
+        <v>71.76514279655021</v>
       </c>
       <c r="F26">
-        <v>24.38649052923326</v>
+        <v>37.21292750484784</v>
       </c>
       <c r="G26">
-        <v>466.8827006456177</v>
+        <v>788.6950475425971</v>
       </c>
       <c r="H26">
-        <v>12.4224603490234</v>
+        <v>21.11613942551922</v>
       </c>
       <c r="I26">
-        <v>2097.368208681784</v>
+        <v>1496.24261817131</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>1230.532141740934</v>
+        <v>411.4726430850441</v>
       </c>
       <c r="C27">
-        <v>4.334162566182417</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D27">
-        <v>26.0333306607559</v>
+        <v>43.48197027742851</v>
       </c>
       <c r="E27">
-        <v>41.43704351405749</v>
+        <v>70.43615867068817</v>
       </c>
       <c r="F27">
-        <v>23.57746003774211</v>
+        <v>35.97837540753062</v>
       </c>
       <c r="G27">
-        <v>403.0166708403211</v>
+        <v>680.8075174542229</v>
       </c>
       <c r="H27">
-        <v>9.499528502194362</v>
+        <v>16.1476360312794</v>
       </c>
       <c r="I27">
-        <v>1738.430337862188</v>
+        <v>1265.691664433019</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1183,28 +1183,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>1321.903374218875</v>
+        <v>442.0258982616577</v>
       </c>
       <c r="C28">
-        <v>7.705177895435409</v>
+        <v>13.09753512324424</v>
       </c>
       <c r="D28">
-        <v>39.04999599113386</v>
+        <v>65.22295541614277</v>
       </c>
       <c r="E28">
-        <v>46.12802957225267</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F28">
-        <v>17.56751924380785</v>
+        <v>26.80741697031692</v>
       </c>
       <c r="G28">
-        <v>358.9711330435646</v>
+        <v>606.4023242898268</v>
       </c>
       <c r="H28">
-        <v>6.576596655365329</v>
+        <v>11.17913263703958</v>
       </c>
       <c r="I28">
-        <v>1797.901826620434</v>
+        <v>1243.145326124088</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1212,28 +1212,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>1194.77818120609</v>
+        <v>399.5170214941957</v>
       </c>
       <c r="C29">
-        <v>3.692064408229467</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D29">
-        <v>35.330948753883</v>
+        <v>59.01124537651013</v>
       </c>
       <c r="E29">
-        <v>50.03718462074864</v>
+        <v>85.05498405517061</v>
       </c>
       <c r="F29">
-        <v>15.4871551228306</v>
+        <v>23.63285443435834</v>
       </c>
       <c r="G29">
-        <v>226.8345196532955</v>
+        <v>383.186744796639</v>
       </c>
       <c r="H29">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I29">
-        <v>1527.621519688491</v>
+        <v>959.1630041005483</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>1254.368115430832</v>
+        <v>419.4430574789436</v>
       </c>
       <c r="C30">
-        <v>4.013113487205941</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D30">
-        <v>33.47142513525757</v>
+        <v>55.9053903566938</v>
       </c>
       <c r="E30">
-        <v>41.43704351405749</v>
+        <v>70.43615867068817</v>
       </c>
       <c r="F30">
-        <v>23.8086116067396</v>
+        <v>36.33110457819264</v>
       </c>
       <c r="G30">
-        <v>277.4868881195652</v>
+        <v>468.7527169356943</v>
       </c>
       <c r="H30">
-        <v>5.845863693658069</v>
+        <v>9.937006788479632</v>
       </c>
       <c r="I30">
-        <v>1640.431060987316</v>
+        <v>1067.627067685382</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>1282.176751402378</v>
+        <v>428.7418742718257</v>
       </c>
       <c r="C31">
-        <v>4.013113487205941</v>
+        <v>6.821632876689707</v>
       </c>
       <c r="D31">
-        <v>35.330948753883</v>
+        <v>59.01124537651013</v>
       </c>
       <c r="E31">
-        <v>43.78253654315508</v>
+        <v>74.42311104827431</v>
       </c>
       <c r="F31">
-        <v>18.95442865779267</v>
+        <v>28.9237919942893</v>
       </c>
       <c r="G31">
-        <v>257.6663961110248</v>
+        <v>435.270380011716</v>
       </c>
       <c r="H31">
-        <v>14.61465923414518</v>
+        <v>24.84251697119907</v>
       </c>
       <c r="I31">
-        <v>1656.538834189585</v>
+        <v>1058.034552550504</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>1508.6185014564</v>
+        <v>504.4608110138676</v>
       </c>
       <c r="C32">
-        <v>4.334162566182417</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D32">
-        <v>22.31428342350504</v>
+        <v>37.27026023779585</v>
       </c>
       <c r="E32">
-        <v>47.69169159165106</v>
+        <v>81.06803167758451</v>
       </c>
       <c r="F32">
-        <v>22.42170219275476</v>
+        <v>34.21472955422027</v>
       </c>
       <c r="G32">
-        <v>242.2504578821602</v>
+        <v>409.2285624041777</v>
       </c>
       <c r="H32">
-        <v>10.23026146390162</v>
+        <v>17.38976187983935</v>
       </c>
       <c r="I32">
-        <v>1857.861060576555</v>
+        <v>1090.99952027431</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1328,28 +1328,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>1658.58650258867</v>
+        <v>554.6080015754835</v>
       </c>
       <c r="C33">
-        <v>3.210490789764753</v>
+        <v>5.457306301351766</v>
       </c>
       <c r="D33">
-        <v>61.36427941463889</v>
+        <v>102.4932156539387</v>
       </c>
       <c r="E33">
-        <v>48.47352260135027</v>
+        <v>82.39701580344658</v>
       </c>
       <c r="F33">
-        <v>22.76842954625097</v>
+        <v>34.74382331021336</v>
       </c>
       <c r="G33">
-        <v>231.2390734329711</v>
+        <v>390.6272641130787</v>
       </c>
       <c r="H33">
-        <v>7.307329617072588</v>
+        <v>12.42125848559954</v>
       </c>
       <c r="I33">
-        <v>2032.949627990718</v>
+        <v>1182.747885243112</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1357,28 +1357,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>2022.0851013596</v>
+        <v>676.156821082446</v>
       </c>
       <c r="C34">
-        <v>4.334162566182417</v>
+        <v>7.367363506824884</v>
       </c>
       <c r="D34">
-        <v>36.26071056319573</v>
+        <v>60.56417288641829</v>
       </c>
       <c r="E34">
-        <v>49.25535361104946</v>
+        <v>83.72599992930857</v>
       </c>
       <c r="F34">
-        <v>13.63794257085083</v>
+        <v>20.81102106906181</v>
       </c>
       <c r="G34">
-        <v>88.09107559351278</v>
+        <v>148.8103863287919</v>
       </c>
       <c r="H34">
-        <v>16.07612515755969</v>
+        <v>27.32676866831898</v>
       </c>
       <c r="I34">
-        <v>2229.740471421951</v>
+        <v>1024.76253347117</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1947.597683578671</v>
+        <v>651.2492761015109</v>
       </c>
       <c r="C35">
-        <v>3.852588947717705</v>
+        <v>6.548767561622118</v>
       </c>
       <c r="D35">
-        <v>30.68213970731944</v>
+        <v>51.24660782696933</v>
       </c>
       <c r="E35">
-        <v>57.85549471774064</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F35">
-        <v>9.708365897893811</v>
+        <v>14.81462516780672</v>
       </c>
       <c r="G35">
-        <v>55.05692224594549</v>
+        <v>93.0064914554949</v>
       </c>
       <c r="H35">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I35">
-        <v>2107.676126942117</v>
+        <v>920.1790968214349</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1401.356619851864</v>
+        <v>468.5939462413217</v>
       </c>
       <c r="C36">
-        <v>5.297309803111844</v>
+        <v>9.004555397230412</v>
       </c>
       <c r="D36">
-        <v>26.9630924700686</v>
+        <v>45.03489778733666</v>
       </c>
       <c r="E36">
-        <v>54.72817067894384</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F36">
-        <v>6.125516578432999</v>
+        <v>9.347323022544716</v>
       </c>
       <c r="G36">
-        <v>74.87741425448588</v>
+        <v>126.4888283794731</v>
       </c>
       <c r="H36">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I36">
-        <v>1570.809589560322</v>
+        <v>753.9826913353694</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1444,28 +1444,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>1011.0425506798</v>
+        <v>338.078410541223</v>
       </c>
       <c r="C37">
-        <v>8.347276053388359</v>
+        <v>14.18899638351459</v>
       </c>
       <c r="D37">
-        <v>19.52499799556693</v>
+        <v>32.61147770807138</v>
       </c>
       <c r="E37">
-        <v>46.90986058195185</v>
+        <v>79.73904755172245</v>
       </c>
       <c r="F37">
-        <v>4.96975873344564</v>
+        <v>7.583677169234389</v>
       </c>
       <c r="G37">
-        <v>77.0796911443237</v>
+        <v>130.2090880376929</v>
       </c>
       <c r="H37">
-        <v>3.653664808536294</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I37">
-        <v>1171.527799997013</v>
+        <v>608.6213266342584</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1473,28 +1473,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>757.7853302246438</v>
+        <v>253.3927576060442</v>
       </c>
       <c r="C38">
-        <v>4.81573618464713</v>
+        <v>8.18595945202765</v>
       </c>
       <c r="D38">
-        <v>10.22737990243981</v>
+        <v>17.08220260898977</v>
       </c>
       <c r="E38">
-        <v>46.12802957225267</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F38">
-        <v>3.120546181465867</v>
+        <v>4.761843803937872</v>
       </c>
       <c r="G38">
-        <v>39.64098401708077</v>
+        <v>66.96467384795636</v>
       </c>
       <c r="H38">
-        <v>3.653664808536294</v>
+        <v>6.210629242799769</v>
       </c>
       <c r="I38">
-        <v>865.3716708910663</v>
+        <v>435.0081299876161</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1502,28 +1502,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>477.7126393683534</v>
+        <v>159.7403884777291</v>
       </c>
       <c r="C39">
-        <v>6.420981579529506</v>
+        <v>10.91461260270353</v>
       </c>
       <c r="D39">
-        <v>10.22737990243981</v>
+        <v>17.08220260898977</v>
       </c>
       <c r="E39">
-        <v>25.80042332007352</v>
+        <v>43.85647615344735</v>
       </c>
       <c r="F39">
-        <v>2.773818827969661</v>
+        <v>4.232750047944776</v>
       </c>
       <c r="G39">
-        <v>28.62959956789166</v>
+        <v>48.36337555685738</v>
       </c>
       <c r="H39">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I39">
-        <v>553.026308489672</v>
+        <v>286.6740571447918</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>281.0658564267026</v>
+        <v>93.98446972806099</v>
       </c>
       <c r="C40">
-        <v>3.692064408229467</v>
+        <v>6.27590224655453</v>
       </c>
       <c r="D40">
-        <v>3.719047237250842</v>
+        <v>6.211710039632642</v>
       </c>
       <c r="E40">
-        <v>11.72746514548796</v>
+        <v>19.93476188793061</v>
       </c>
       <c r="F40">
-        <v>2.54266725897219</v>
+        <v>3.880020877282713</v>
       </c>
       <c r="G40">
-        <v>48.45009157643204</v>
+        <v>81.84571248083554</v>
       </c>
       <c r="H40">
-        <v>1.461465923414517</v>
+        <v>2.484251697119908</v>
       </c>
       <c r="I40">
-        <v>352.6586579764895</v>
+        <v>214.6168289574169</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>169.8313125405164</v>
+        <v>56.78920255653155</v>
       </c>
       <c r="C41">
-        <v>2.72891717130004</v>
+        <v>4.638710356149001</v>
       </c>
       <c r="D41">
-        <v>0.9297618093127106</v>
+        <v>1.552927509908161</v>
       </c>
       <c r="E41">
-        <v>4.690986058195186</v>
+        <v>7.973904755172247</v>
       </c>
       <c r="F41">
-        <v>3.698425103959546</v>
+        <v>5.643666730593036</v>
       </c>
       <c r="G41">
-        <v>46.24781468659423</v>
+        <v>78.12545282261574</v>
       </c>
       <c r="H41">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I41">
-        <v>228.8579503315854</v>
+        <v>155.9659905795297</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>127.1251930127843</v>
+        <v>42.50887676746221</v>
       </c>
       <c r="C42">
-        <v>4.17363802669418</v>
+        <v>7.094498191757294</v>
       </c>
       <c r="D42">
-        <v>1.859523618625421</v>
+        <v>3.105855019816321</v>
       </c>
       <c r="E42">
-        <v>1.563662019398395</v>
+        <v>2.657968251724081</v>
       </c>
       <c r="F42">
-        <v>3.120546181465867</v>
+        <v>4.761843803937872</v>
       </c>
       <c r="G42">
-        <v>33.0341533475673</v>
+        <v>55.80389487329697</v>
       </c>
       <c r="I42">
-        <v>170.8767162065354</v>
+        <v>115.9329369079947</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1615,25 +1615,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>74.48741778092828</v>
+        <v>24.90754498093489</v>
       </c>
       <c r="C43">
-        <v>1.926294473858852</v>
+        <v>3.274383780811059</v>
       </c>
       <c r="D43">
-        <v>2.78928542793813</v>
+        <v>4.658782529724482</v>
       </c>
       <c r="E43">
-        <v>0.7818310096991975</v>
+        <v>1.328984125862041</v>
       </c>
       <c r="F43">
-        <v>2.427091474473453</v>
+        <v>3.70365629195168</v>
       </c>
       <c r="G43">
-        <v>48.45009157643204</v>
+        <v>81.84571248083554</v>
       </c>
       <c r="I43">
-        <v>130.86201174333</v>
+        <v>119.7190641901197</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>101.3028881820624</v>
+        <v>33.87426117407144</v>
       </c>
       <c r="C44">
-        <v>1.444720855394139</v>
+        <v>2.455787835608295</v>
       </c>
       <c r="D44">
-        <v>2.78928542793813</v>
+        <v>4.658782529724482</v>
       </c>
       <c r="E44">
-        <v>6.25464807759358</v>
+        <v>10.63187300689633</v>
       </c>
       <c r="F44">
-        <v>2.311515689974716</v>
+        <v>3.527291706620647</v>
       </c>
       <c r="G44">
-        <v>26.42732267805385</v>
+        <v>44.64311589863757</v>
       </c>
       <c r="I44">
-        <v>140.5303809110168</v>
+        <v>99.79111215155876</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>203.5989419345373</v>
+        <v>68.08062294788866</v>
       </c>
       <c r="C45">
-        <v>2.247343552835328</v>
+        <v>3.820114410946235</v>
       </c>
       <c r="D45">
-        <v>2.78928542793813</v>
+        <v>4.658782529724482</v>
       </c>
       <c r="E45">
-        <v>3.909155048495989</v>
+        <v>6.644920629310206</v>
       </c>
       <c r="F45">
-        <v>3.120546181465867</v>
+        <v>4.761843803937872</v>
       </c>
       <c r="G45">
-        <v>55.05692224594549</v>
+        <v>93.0064914554949</v>
       </c>
       <c r="H45">
-        <v>2.192198885121776</v>
+        <v>3.726377545679861</v>
       </c>
       <c r="I45">
-        <v>272.9143932763399</v>
+        <v>184.6991533229822</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>603.8446668107254</v>
+        <v>201.9171646454454</v>
       </c>
       <c r="C46">
-        <v>2.889441710788279</v>
+        <v>4.91157567121659</v>
       </c>
       <c r="D46">
-        <v>17.6654743769415</v>
+        <v>29.50562268825506</v>
       </c>
       <c r="E46">
-        <v>17.20028221338235</v>
+        <v>29.2376507689649</v>
       </c>
       <c r="F46">
-        <v>7.165698638921621</v>
+        <v>10.93460429052401</v>
       </c>
       <c r="G46">
-        <v>105.7092907122154</v>
+        <v>178.5724635945503</v>
       </c>
       <c r="H46">
-        <v>0.7307329617072587</v>
+        <v>1.242125848559954</v>
       </c>
       <c r="I46">
-        <v>755.2055874246819</v>
+        <v>456.3212075075162</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>1024.946868665573</v>
+        <v>342.7278189376639</v>
       </c>
       <c r="C47">
-        <v>2.08681901334709</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D47">
-        <v>24.17380704213047</v>
+        <v>40.37611525761218</v>
       </c>
       <c r="E47">
-        <v>46.12802957225267</v>
+        <v>78.41006342586041</v>
       </c>
       <c r="F47">
-        <v>9.823941682392547</v>
+        <v>14.99098975313775</v>
       </c>
       <c r="G47">
-        <v>145.3502747292961</v>
+        <v>245.5371374425067</v>
       </c>
       <c r="H47">
-        <v>8.768795540487105</v>
+        <v>14.90551018271944</v>
       </c>
       <c r="I47">
-        <v>1261.278536245479</v>
+        <v>740.4948840953791</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>1609.921389638463</v>
+        <v>538.3350721879397</v>
       </c>
       <c r="C48">
-        <v>2.08681901334709</v>
+        <v>3.547249095878647</v>
       </c>
       <c r="D48">
-        <v>24.17380704213047</v>
+        <v>40.37611525761218</v>
       </c>
       <c r="E48">
-        <v>57.85549471774064</v>
+        <v>98.34482531379108</v>
       </c>
       <c r="F48">
-        <v>14.67812463133945</v>
+        <v>22.3983023370411</v>
       </c>
       <c r="G48">
-        <v>165.1707667378365</v>
+        <v>279.0194743664848</v>
       </c>
       <c r="H48">
-        <v>15.34539219585243</v>
+        <v>26.08464281975904</v>
       </c>
       <c r="I48">
-        <v>1889.231793976709</v>
+        <v>1008.105681378506</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1565.228938969905</v>
+        <v>523.3905451993782</v>
       </c>
       <c r="C49">
-        <v>3.53153986874123</v>
+        <v>6.003036931486943</v>
       </c>
       <c r="D49">
-        <v>26.0333306607559</v>
+        <v>43.48197027742851</v>
       </c>
       <c r="E49">
-        <v>54.72817067894384</v>
+        <v>93.02888881034285</v>
       </c>
       <c r="F49">
-        <v>12.251033156866</v>
+        <v>18.69464604508943</v>
       </c>
       <c r="G49">
-        <v>198.2049200854038</v>
+        <v>334.8233692397818</v>
       </c>
       <c r="H49">
-        <v>2.922931846829035</v>
+        <v>4.968503394239816</v>
       </c>
       <c r="I49">
-        <v>1862.900865267445</v>
+        <v>1024.390959897748</v>
       </c>
     </row>
   </sheetData>
